--- a/davis_2017.xlsx
+++ b/davis_2017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="302">
   <si>
     <t>Date</t>
   </si>
@@ -130,6 +130,9 @@
     <t xml:space="preserve"> The Arena at TD Place, Ottawa, Canada</t>
   </si>
   <si>
+    <t xml:space="preserve"> Sportski Centar Cair, Nis, Serbia</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Sportska Dvorana Gradski Vrt , Osijek, Croatia</t>
   </si>
   <si>
@@ -166,6 +169,9 @@
     <t xml:space="preserve"> Hard - DecoTurf, Indoor</t>
   </si>
   <si>
+    <t xml:space="preserve"> Hard, Indoor</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Hard - RuKortHard Tournament MF, Indoor</t>
   </si>
   <si>
@@ -193,6 +199,9 @@
     <t xml:space="preserve"> Yonex Tour</t>
   </si>
   <si>
+    <t xml:space="preserve"> Tecnifibre X-One</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Babolat French Open Roland-Garros</t>
   </si>
   <si>
@@ -202,9 +211,6 @@
     <t xml:space="preserve"> Babolat French Open All Court</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tecnifibre X-One</t>
-  </si>
-  <si>
     <t>WORLD GROUP  1ST ROUND</t>
   </si>
   <si>
@@ -226,7 +232,7 @@
     <t>PLAYED &amp; COMPLETED (DEF)</t>
   </si>
   <si>
-    <t>NOT PLAYED</t>
+    <t>PLAYED &amp; COMPLETED (WO)</t>
   </si>
   <si>
     <t>MATCH 1</t>
@@ -373,6 +379,27 @@
     <t>Dominic Inglot</t>
   </si>
   <si>
+    <t>Viktor Troicki</t>
+  </si>
+  <si>
+    <t>Karen Khachanov</t>
+  </si>
+  <si>
+    <t>Novak Djokovic</t>
+  </si>
+  <si>
+    <t>Daniil Medvedev</t>
+  </si>
+  <si>
+    <t>Konstantin Kravchuk</t>
+  </si>
+  <si>
+    <t>Dusan Lajovic</t>
+  </si>
+  <si>
+    <t>Nenad Zimonjic</t>
+  </si>
+  <si>
     <t>Franko Skugor</t>
   </si>
   <si>
@@ -412,24 +439,12 @@
     <t>Julien Benneteau</t>
   </si>
   <si>
-    <t>Novak Djokovic</t>
-  </si>
-  <si>
     <t>Albert Ramos-Vinolas</t>
   </si>
   <si>
-    <t>Viktor Troicki</t>
-  </si>
-  <si>
-    <t>Dusan Lajovic</t>
-  </si>
-  <si>
     <t>Jaume Munar</t>
   </si>
   <si>
-    <t>Nenad Zimonjic</t>
-  </si>
-  <si>
     <t>John Millman</t>
   </si>
   <si>
@@ -451,6 +466,9 @@
     <t>Jamie Murray</t>
   </si>
   <si>
+    <t>Andrey Kuznetsov</t>
+  </si>
+  <si>
     <t>Marc Lopez</t>
   </si>
   <si>
@@ -490,15 +508,18 @@
     <t>GREAT BRITAIN</t>
   </si>
   <si>
+    <t>SERBIA</t>
+  </si>
+  <si>
+    <t>RUSSIA</t>
+  </si>
+  <si>
     <t>CROATIA</t>
   </si>
   <si>
     <t>SPAIN</t>
   </si>
   <si>
-    <t>SERBIA</t>
-  </si>
-  <si>
     <t>17 May 1990</t>
   </si>
   <si>
@@ -616,6 +637,27 @@
     <t>06 Mar 1986</t>
   </si>
   <si>
+    <t>10 Feb 1986</t>
+  </si>
+  <si>
+    <t>21 May 1996</t>
+  </si>
+  <si>
+    <t>22 May 1987</t>
+  </si>
+  <si>
+    <t>11 Feb 1996</t>
+  </si>
+  <si>
+    <t>23 Feb 1985</t>
+  </si>
+  <si>
+    <t>30 Jun 1990</t>
+  </si>
+  <si>
+    <t>04 Jun 1976</t>
+  </si>
+  <si>
     <t>20 Sep 1987</t>
   </si>
   <si>
@@ -655,24 +697,12 @@
     <t>20 Dec 1981</t>
   </si>
   <si>
-    <t>22 May 1987</t>
-  </si>
-  <si>
     <t>17 Jan 1988</t>
   </si>
   <si>
-    <t>10 Feb 1986</t>
-  </si>
-  <si>
-    <t>30 Jun 1990</t>
-  </si>
-  <si>
     <t>05 May 1997</t>
   </si>
   <si>
-    <t>04 Jun 1976</t>
-  </si>
-  <si>
     <t>14 Jun 1989</t>
   </si>
   <si>
@@ -751,6 +781,18 @@
     <t>529</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>595</t>
   </si>
   <si>
@@ -775,15 +817,9 @@
     <t>511</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>92</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
     <t>87</t>
   </si>
   <si>
@@ -838,6 +874,12 @@
     <t>570=</t>
   </si>
   <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>855=</t>
+  </si>
+  <si>
     <t>171</t>
   </si>
   <si>
@@ -859,9 +901,6 @@
     <t>112</t>
   </si>
   <si>
-    <t>855=</t>
-  </si>
-  <si>
     <t>248</t>
   </si>
   <si>
@@ -872,6 +911,9 @@
   </si>
   <si>
     <t>13 Feb 1986</t>
+  </si>
+  <si>
+    <t>22 Feb 1991</t>
   </si>
   <si>
     <t>31 Jul 1982</t>
@@ -1235,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB140"/>
+  <dimension ref="A1:AB149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1335,13 +1377,13 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -1353,25 +1395,25 @@
         <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="V2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="W2" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="X2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="AB2">
         <v>2017</v>
@@ -1385,13 +1427,13 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -1403,19 +1445,19 @@
         <v>6</v>
       </c>
       <c r="P3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="V3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AB3">
         <v>2017</v>
@@ -1429,13 +1471,13 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1453,19 +1495,19 @@
         <v>6</v>
       </c>
       <c r="P4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="V4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AB4">
         <v>2017</v>
@@ -1479,13 +1521,13 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -1503,19 +1545,19 @@
         <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U5" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="V5" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AB5">
         <v>2017</v>
@@ -1529,13 +1571,13 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -1556,25 +1598,25 @@
         <v>9</v>
       </c>
       <c r="P6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="U6" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="V6" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Y6" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="AB6">
         <v>2017</v>
@@ -1588,13 +1630,13 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -1615,34 +1657,34 @@
         <v>7</v>
       </c>
       <c r="P7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="U7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="V7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="X7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="Y7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Z7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="AA7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="AB7">
         <v>2017</v>
@@ -1656,13 +1698,13 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -1680,19 +1722,19 @@
         <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U8" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="V8" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AB8">
         <v>2017</v>
@@ -1706,13 +1748,13 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -1730,19 +1772,19 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U9" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="V9" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AB9">
         <v>2017</v>
@@ -1756,13 +1798,13 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -1780,25 +1822,25 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U10" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="V10" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="W10" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="X10" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="AB10">
         <v>2017</v>
@@ -1812,13 +1854,13 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1836,25 +1878,25 @@
         <v>6</v>
       </c>
       <c r="P11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="U11" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="V11" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="W11" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="X11" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="AB11">
         <v>2017</v>
@@ -1868,13 +1910,13 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -1898,22 +1940,22 @@
         <v>5</v>
       </c>
       <c r="P12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="V12" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AB12">
         <v>2017</v>
@@ -1927,13 +1969,13 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -1957,22 +1999,22 @@
         <v>7</v>
       </c>
       <c r="P13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="U13" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="V13" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AB13">
         <v>2017</v>
@@ -1986,13 +2028,13 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -2004,28 +2046,28 @@
         <v>6</v>
       </c>
       <c r="P14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="U14" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="V14" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="W14" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="X14" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="AB14">
         <v>2017</v>
@@ -2039,13 +2081,13 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -2057,22 +2099,22 @@
         <v>4</v>
       </c>
       <c r="P15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="U15" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="V15" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AB15">
         <v>2017</v>
@@ -2086,13 +2128,13 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -2113,37 +2155,37 @@
         <v>4</v>
       </c>
       <c r="P16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="T16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="U16" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="V16" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="W16" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="X16" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Z16" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="AB16">
         <v>2017</v>
@@ -2157,13 +2199,13 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -2184,34 +2226,34 @@
         <v>7</v>
       </c>
       <c r="P17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="T17" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="U17" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="V17" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Y17" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="Z17" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="AA17" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="AB17">
         <v>2017</v>
@@ -2225,13 +2267,13 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -2249,28 +2291,28 @@
         <v>8</v>
       </c>
       <c r="P18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="U18" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="V18" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="W18" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="X18" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="AB18">
         <v>2017</v>
@@ -2284,13 +2326,13 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -2308,22 +2350,22 @@
         <v>10</v>
       </c>
       <c r="P19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="U19" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="V19" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AB19">
         <v>2017</v>
@@ -2337,13 +2379,13 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -2352,25 +2394,25 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="U20" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="V20" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="W20" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="AB20">
         <v>2017</v>
@@ -2384,13 +2426,13 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -2399,22 +2441,22 @@
         <v>6</v>
       </c>
       <c r="P21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="U21" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="V21" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AB21">
         <v>2017</v>
@@ -2428,13 +2470,13 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -2446,28 +2488,28 @@
         <v>6</v>
       </c>
       <c r="P22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U22" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="V22" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="W22" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="X22" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AB22">
         <v>2017</v>
@@ -2481,13 +2523,13 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -2499,28 +2541,28 @@
         <v>4</v>
       </c>
       <c r="P23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="U23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="V23" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="W23" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="X23" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="AB23">
         <v>2017</v>
@@ -2534,13 +2576,13 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F24">
         <v>6</v>
@@ -2552,22 +2594,22 @@
         <v>6</v>
       </c>
       <c r="P24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U24" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="V24" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AB24">
         <v>2017</v>
@@ -2581,13 +2623,13 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -2599,25 +2641,25 @@
         <v>2</v>
       </c>
       <c r="P25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U25" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="V25" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="X25" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="AB25">
         <v>2017</v>
@@ -2631,13 +2673,13 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F26">
         <v>6</v>
@@ -2649,31 +2691,31 @@
         <v>6</v>
       </c>
       <c r="P26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T26" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="U26" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="V26" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Y26" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AA26" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="AB26">
         <v>2017</v>
@@ -2687,13 +2729,13 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -2705,37 +2747,37 @@
         <v>2</v>
       </c>
       <c r="P27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s">
+        <v>97</v>
+      </c>
+      <c r="T27" t="s">
         <v>95</v>
       </c>
-      <c r="T27" t="s">
-        <v>93</v>
-      </c>
       <c r="U27" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="V27" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="X27" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="Y27" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Z27" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="AA27" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="AB27">
         <v>2017</v>
@@ -2749,13 +2791,13 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F28">
         <v>6</v>
@@ -2767,22 +2809,22 @@
         <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="U28" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="V28" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AB28">
         <v>2017</v>
@@ -2796,13 +2838,13 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -2814,28 +2856,28 @@
         <v>6</v>
       </c>
       <c r="P29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="U29" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="V29" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="W29" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="X29" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="AB29">
         <v>2017</v>
@@ -2849,13 +2891,13 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -2867,28 +2909,28 @@
         <v>7</v>
       </c>
       <c r="P30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U30" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="V30" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="W30" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="X30" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AB30">
         <v>2017</v>
@@ -2902,13 +2944,13 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -2920,25 +2962,25 @@
         <v>5</v>
       </c>
       <c r="P31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R31" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U31" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="V31" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="X31" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="AB31">
         <v>2017</v>
@@ -2952,13 +2994,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F32">
         <v>6</v>
@@ -2970,28 +3012,28 @@
         <v>6</v>
       </c>
       <c r="P32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U32" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="V32" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="W32" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="X32" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AB32">
         <v>2017</v>
@@ -3005,13 +3047,13 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F33">
         <v>4</v>
@@ -3023,22 +3065,22 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U33" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="V33" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="AB33">
         <v>2017</v>
@@ -3052,13 +3094,13 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F34">
         <v>4</v>
@@ -3076,28 +3118,28 @@
         <v>7</v>
       </c>
       <c r="P34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="U34" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="V34" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="W34" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="X34" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="AB34">
         <v>2017</v>
@@ -3111,13 +3153,13 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F35">
         <v>6</v>
@@ -3135,25 +3177,25 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S35" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U35" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="V35" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="W35" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="AB35">
         <v>2017</v>
@@ -3167,13 +3209,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F36">
         <v>7</v>
@@ -3191,37 +3233,37 @@
         <v>7</v>
       </c>
       <c r="P36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="T36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U36" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="V36" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="W36" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="Y36" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Z36" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AA36" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AB36">
         <v>2017</v>
@@ -3235,13 +3277,13 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F37">
         <v>6</v>
@@ -3259,31 +3301,31 @@
         <v>5</v>
       </c>
       <c r="P37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R37" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S37" t="s">
+        <v>104</v>
+      </c>
+      <c r="T37" t="s">
         <v>102</v>
       </c>
-      <c r="T37" t="s">
-        <v>100</v>
-      </c>
       <c r="U37" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="V37" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Y37" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Z37" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="AB37">
         <v>2017</v>
@@ -3297,13 +3339,13 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F38">
         <v>6</v>
@@ -3312,22 +3354,22 @@
         <v>7</v>
       </c>
       <c r="P38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="U38" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="V38" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AB38">
         <v>2017</v>
@@ -3341,13 +3383,13 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -3356,22 +3398,22 @@
         <v>5</v>
       </c>
       <c r="P39" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S39" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="U39" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="V39" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AB39">
         <v>2017</v>
@@ -3385,13 +3427,13 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F40">
         <v>6</v>
@@ -3400,25 +3442,25 @@
         <v>6</v>
       </c>
       <c r="P40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S40" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U40" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="V40" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="W40" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="AB40">
         <v>2017</v>
@@ -3432,13 +3474,13 @@
         <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F41">
         <v>4</v>
@@ -3447,28 +3489,28 @@
         <v>3</v>
       </c>
       <c r="P41" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S41" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="U41" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="V41" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="W41" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="X41" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AB41">
         <v>2017</v>
@@ -3482,13 +3524,13 @@
         <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -3500,25 +3542,25 @@
         <v>2</v>
       </c>
       <c r="P42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q42" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R42" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S42" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="U42" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="V42" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="W42" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="AB42">
         <v>2017</v>
@@ -3532,13 +3574,13 @@
         <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F43">
         <v>6</v>
@@ -3550,25 +3592,25 @@
         <v>6</v>
       </c>
       <c r="P43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S43" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="U43" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="V43" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="W43" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="AB43">
         <v>2017</v>
@@ -3582,13 +3624,13 @@
         <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -3600,28 +3642,28 @@
         <v>4</v>
       </c>
       <c r="P44" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S44" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="U44" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="V44" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="W44" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="X44" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AB44">
         <v>2017</v>
@@ -3635,13 +3677,13 @@
         <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F45">
         <v>6</v>
@@ -3653,22 +3695,22 @@
         <v>6</v>
       </c>
       <c r="P45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q45" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S45" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="U45" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="V45" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="AB45">
         <v>2017</v>
@@ -3682,13 +3724,13 @@
         <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -3700,37 +3742,37 @@
         <v>4</v>
       </c>
       <c r="P46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q46" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R46" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S46" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="T46" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="U46" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="V46" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="W46" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="Y46" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Z46" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AA46" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="AB46">
         <v>2017</v>
@@ -3744,13 +3786,13 @@
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F47">
         <v>6</v>
@@ -3762,37 +3804,37 @@
         <v>6</v>
       </c>
       <c r="P47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q47" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R47" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S47" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="T47" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="U47" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="V47" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="W47" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="X47" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="Y47" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AA47" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="AB47">
         <v>2017</v>
@@ -3806,13 +3848,13 @@
         <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -3821,28 +3863,28 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S48" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="U48" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="V48" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="W48" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="X48" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AB48">
         <v>2017</v>
@@ -3856,13 +3898,13 @@
         <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F49">
         <v>6</v>
@@ -3871,25 +3913,25 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q49" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R49" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S49" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="U49" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="V49" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="X49" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="AB49">
         <v>2017</v>
@@ -3903,13 +3945,13 @@
         <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F50">
         <v>6</v>
@@ -3918,28 +3960,28 @@
         <v>6</v>
       </c>
       <c r="P50" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q50" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R50" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="U50" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="V50" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="W50" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="X50" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="AB50">
         <v>2017</v>
@@ -3953,13 +3995,13 @@
         <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F51">
         <v>4</v>
@@ -3968,28 +4010,28 @@
         <v>4</v>
       </c>
       <c r="P51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R51" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S51" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U51" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="V51" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="W51" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="X51" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AB51">
         <v>2017</v>
@@ -4003,13 +4045,13 @@
         <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F52">
         <v>3</v>
@@ -4021,28 +4063,28 @@
         <v>4</v>
       </c>
       <c r="P52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q52" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R52" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S52" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="U52" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="V52" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="W52" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="X52" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AB52">
         <v>2017</v>
@@ -4056,13 +4098,13 @@
         <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F53">
         <v>6</v>
@@ -4074,28 +4116,28 @@
         <v>6</v>
       </c>
       <c r="P53" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R53" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S53" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="U53" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="V53" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="W53" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="X53" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AB53">
         <v>2017</v>
@@ -4109,13 +4151,13 @@
         <v>37</v>
       </c>
       <c r="C54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -4130,28 +4172,28 @@
         <v>7</v>
       </c>
       <c r="P54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R54" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S54" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="U54" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="V54" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="W54" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="X54" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AB54">
         <v>2017</v>
@@ -4165,13 +4207,13 @@
         <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F55">
         <v>4</v>
@@ -4186,25 +4228,25 @@
         <v>3</v>
       </c>
       <c r="P55" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q55" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R55" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S55" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="U55" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="V55" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="W55" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="AB55">
         <v>2017</v>
@@ -4218,13 +4260,13 @@
         <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F56">
         <v>6</v>
@@ -4248,34 +4290,34 @@
         <v>3</v>
       </c>
       <c r="P56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q56" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R56" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S56" t="s">
+        <v>119</v>
+      </c>
+      <c r="T56" t="s">
         <v>117</v>
       </c>
-      <c r="T56" t="s">
-        <v>115</v>
-      </c>
       <c r="U56" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="V56" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Y56" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Z56" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="AA56" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AB56">
         <v>2017</v>
@@ -4289,13 +4331,13 @@
         <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F57">
         <v>7</v>
@@ -4319,31 +4361,31 @@
         <v>7</v>
       </c>
       <c r="P57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q57" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R57" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S57" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="T57" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="U57" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="V57" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Y57" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="AA57" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="AB57">
         <v>2017</v>
@@ -4357,13 +4399,13 @@
         <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F58">
         <v>7</v>
@@ -4384,28 +4426,28 @@
         <v>7</v>
       </c>
       <c r="P58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q58" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R58" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S58" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="U58" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="V58" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="W58" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="X58" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AB58">
         <v>2017</v>
@@ -4419,13 +4461,13 @@
         <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F59">
         <v>6</v>
@@ -4446,28 +4488,28 @@
         <v>5</v>
       </c>
       <c r="P59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q59" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R59" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S59" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="U59" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="V59" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="W59" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="X59" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AB59">
         <v>2017</v>
@@ -4481,13 +4523,13 @@
         <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -4499,28 +4541,28 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q60" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R60" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S60" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="U60" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="V60" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="W60" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="X60" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AB60">
         <v>2017</v>
@@ -4534,13 +4576,13 @@
         <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F61">
         <v>6</v>
@@ -4552,25 +4594,25 @@
         <v>2</v>
       </c>
       <c r="P61" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q61" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S61" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="U61" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="V61" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="W61" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="AB61">
         <v>2017</v>
@@ -4584,52 +4626,52 @@
         <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>6</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>7</v>
+      </c>
+      <c r="L62">
         <v>3</v>
-      </c>
-      <c r="G62">
-        <v>6</v>
-      </c>
-      <c r="H62">
-        <v>6</v>
-      </c>
-      <c r="I62">
-        <v>4</v>
-      </c>
-      <c r="J62">
-        <v>7</v>
       </c>
       <c r="O62">
         <v>8</v>
       </c>
       <c r="P62" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q62" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R62" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S62" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="U62" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="V62" t="s">
-        <v>200</v>
-      </c>
-      <c r="X62" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="AB62">
         <v>2017</v>
@@ -4643,52 +4685,58 @@
         <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D63" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G63">
+        <v>7</v>
+      </c>
+      <c r="H63">
         <v>3</v>
       </c>
-      <c r="H63">
-        <v>4</v>
-      </c>
       <c r="I63">
         <v>6</v>
       </c>
       <c r="J63">
         <v>6</v>
       </c>
+      <c r="L63">
+        <v>7</v>
+      </c>
       <c r="O63">
         <v>6</v>
       </c>
       <c r="P63" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q63" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R63" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S63" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="U63" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="V63" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="W63" t="s">
-        <v>245</v>
+        <v>255</v>
+      </c>
+      <c r="X63" t="s">
+        <v>286</v>
       </c>
       <c r="AB63">
         <v>2017</v>
@@ -4702,40 +4750,46 @@
         <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E64" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q64" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R64" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S64" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="U64" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="V64" t="s">
-        <v>202</v>
+        <v>209</v>
+      </c>
+      <c r="W64" t="s">
+        <v>256</v>
       </c>
       <c r="AB64">
         <v>2017</v>
@@ -4749,43 +4803,46 @@
         <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D65" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F65">
         <v>6</v>
       </c>
       <c r="G65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H65">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
       </c>
       <c r="P65" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R65" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S65" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="U65" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="V65" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="W65" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="AB65">
         <v>2017</v>
@@ -4799,13 +4856,13 @@
         <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D66" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F66">
         <v>6</v>
@@ -4814,49 +4871,40 @@
         <v>7</v>
       </c>
       <c r="H66">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I66">
-        <v>2</v>
-      </c>
-      <c r="J66">
-        <v>6</v>
-      </c>
-      <c r="K66">
         <v>6</v>
       </c>
       <c r="L66">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M66">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P66" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q66" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R66" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S66" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T66" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="U66" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="V66" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Y66" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="AB66">
         <v>2017</v>
@@ -4870,64 +4918,58 @@
         <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D67" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E67" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F67">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G67">
         <v>6</v>
       </c>
       <c r="H67">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I67">
-        <v>6</v>
-      </c>
-      <c r="J67">
         <v>4</v>
       </c>
-      <c r="K67">
-        <v>8</v>
-      </c>
       <c r="L67">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M67">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P67" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q67" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T67" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="U67" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="V67" t="s">
-        <v>205</v>
-      </c>
-      <c r="W67" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="Y67" t="s">
-        <v>286</v>
+        <v>299</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>237</v>
       </c>
       <c r="AB67">
         <v>2017</v>
@@ -4941,52 +4983,46 @@
         <v>38</v>
       </c>
       <c r="C68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D68" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G68">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H68">
-        <v>3</v>
-      </c>
-      <c r="I68">
-        <v>6</v>
-      </c>
-      <c r="L68">
-        <v>7</v>
-      </c>
-      <c r="N68">
         <v>6</v>
       </c>
       <c r="P68" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q68" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R68" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S68" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="U68" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="V68" t="s">
-        <v>200</v>
+        <v>212</v>
+      </c>
+      <c r="W68" t="s">
+        <v>258</v>
       </c>
       <c r="X68" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="AB68">
         <v>2017</v>
@@ -5000,52 +5036,40 @@
         <v>38</v>
       </c>
       <c r="C69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D69" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F69">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G69">
         <v>6</v>
       </c>
       <c r="H69">
-        <v>6</v>
-      </c>
-      <c r="I69">
-        <v>7</v>
-      </c>
-      <c r="L69">
-        <v>4</v>
-      </c>
-      <c r="N69">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P69" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q69" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R69" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S69" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="U69" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="V69" t="s">
-        <v>203</v>
-      </c>
-      <c r="W69" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="AB69">
         <v>2017</v>
@@ -5059,46 +5083,31 @@
         <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E70" t="s">
-        <v>63</v>
-      </c>
-      <c r="F70">
-        <v>6</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>4</v>
-      </c>
-      <c r="K70">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="P70" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q70" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R70" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S70" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="U70" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="V70" t="s">
-        <v>206</v>
-      </c>
-      <c r="X70" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="AB70">
         <v>2017</v>
@@ -5112,46 +5121,34 @@
         <v>38</v>
       </c>
       <c r="C71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D71" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E71" t="s">
-        <v>63</v>
-      </c>
-      <c r="F71">
-        <v>7</v>
-      </c>
-      <c r="G71">
-        <v>6</v>
-      </c>
-      <c r="H71">
-        <v>6</v>
-      </c>
-      <c r="K71">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="P71" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q71" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R71" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S71" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="U71" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="V71" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="W71" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AB71">
         <v>2017</v>
@@ -5159,22 +5156,22 @@
     </row>
     <row r="72" spans="1:28">
       <c r="A72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
         <v>39</v>
       </c>
       <c r="C72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E72" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G72">
         <v>6</v>
@@ -5183,31 +5180,34 @@
         <v>6</v>
       </c>
       <c r="I72">
-        <v>7</v>
-      </c>
-      <c r="K72">
-        <v>3</v>
-      </c>
-      <c r="N72">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="J72">
+        <v>7</v>
+      </c>
+      <c r="O72">
+        <v>8</v>
       </c>
       <c r="P72" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q72" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R72" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S72" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="U72" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="V72" t="s">
-        <v>168</v>
+        <v>214</v>
+      </c>
+      <c r="X72" t="s">
+        <v>288</v>
       </c>
       <c r="AB72">
         <v>2017</v>
@@ -5215,55 +5215,58 @@
     </row>
     <row r="73" spans="1:28">
       <c r="A73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B73" t="s">
         <v>39</v>
       </c>
       <c r="C73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I73">
         <v>6</v>
       </c>
-      <c r="K73">
-        <v>7</v>
-      </c>
-      <c r="N73">
-        <v>4</v>
+      <c r="J73">
+        <v>6</v>
+      </c>
+      <c r="O73">
+        <v>6</v>
       </c>
       <c r="P73" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q73" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R73" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S73" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="U73" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="V73" t="s">
-        <v>162</v>
+        <v>215</v>
+      </c>
+      <c r="W73" t="s">
+        <v>259</v>
       </c>
       <c r="AB73">
         <v>2017</v>
@@ -5271,52 +5274,46 @@
     </row>
     <row r="74" spans="1:28">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B74" t="s">
         <v>39</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G74">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H74">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P74" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q74" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R74" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S74" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="U74" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="V74" t="s">
-        <v>207</v>
-      </c>
-      <c r="W74" t="s">
-        <v>248</v>
-      </c>
-      <c r="X74" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="AB74">
         <v>2017</v>
@@ -5324,46 +5321,49 @@
     </row>
     <row r="75" spans="1:28">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B75" t="s">
         <v>39</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P75" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q75" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R75" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S75" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="U75" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="V75" t="s">
-        <v>164</v>
+        <v>217</v>
+      </c>
+      <c r="W75" t="s">
+        <v>260</v>
       </c>
       <c r="AB75">
         <v>2017</v>
@@ -5371,67 +5371,70 @@
     </row>
     <row r="76" spans="1:28">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B76" t="s">
         <v>39</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E76" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F76">
         <v>6</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I76">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J76">
         <v>6</v>
       </c>
-      <c r="O76">
-        <v>6</v>
+      <c r="K76">
+        <v>6</v>
+      </c>
+      <c r="L76">
+        <v>9</v>
+      </c>
+      <c r="M76">
+        <v>7</v>
       </c>
       <c r="P76" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q76" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R76" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S76" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="T76" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="U76" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="V76" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="Y76" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="AA76" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AB76">
         <v>2017</v>
@@ -5439,64 +5442,70 @@
     </row>
     <row r="77" spans="1:28">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B77" t="s">
         <v>39</v>
       </c>
       <c r="C77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77">
+        <v>6</v>
+      </c>
+      <c r="H77">
+        <v>6</v>
+      </c>
+      <c r="I77">
+        <v>6</v>
+      </c>
+      <c r="J77">
         <v>4</v>
       </c>
-      <c r="G77">
-        <v>6</v>
-      </c>
-      <c r="H77">
-        <v>6</v>
-      </c>
-      <c r="I77">
-        <v>3</v>
-      </c>
-      <c r="J77">
-        <v>7</v>
-      </c>
-      <c r="O77">
+      <c r="K77">
         <v>8</v>
       </c>
+      <c r="L77">
+        <v>7</v>
+      </c>
+      <c r="M77">
+        <v>5</v>
+      </c>
       <c r="P77" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q77" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R77" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S77" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="T77" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="U77" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="V77" t="s">
-        <v>165</v>
-      </c>
-      <c r="X77" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="W77" t="s">
+        <v>261</v>
       </c>
       <c r="Y77" t="s">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="AB77">
         <v>2017</v>
@@ -5504,52 +5513,58 @@
     </row>
     <row r="78" spans="1:28">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B78" t="s">
         <v>39</v>
       </c>
       <c r="C78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F78">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <v>6</v>
+      </c>
+      <c r="L78">
+        <v>7</v>
+      </c>
+      <c r="N78">
         <v>6</v>
       </c>
       <c r="P78" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q78" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R78" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="U78" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="V78" t="s">
-        <v>207</v>
-      </c>
-      <c r="W78" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="X78" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AB78">
         <v>2017</v>
@@ -5557,46 +5572,58 @@
     </row>
     <row r="79" spans="1:28">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B79" t="s">
         <v>39</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E79" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F79">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="I79">
+        <v>7</v>
+      </c>
+      <c r="L79">
+        <v>4</v>
+      </c>
+      <c r="N79">
+        <v>8</v>
       </c>
       <c r="P79" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q79" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R79" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S79" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="U79" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="V79" t="s">
-        <v>162</v>
+        <v>217</v>
+      </c>
+      <c r="W79" t="s">
+        <v>260</v>
       </c>
       <c r="AB79">
         <v>2017</v>
@@ -5604,52 +5631,52 @@
     </row>
     <row r="80" spans="1:28">
       <c r="A80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B80" t="s">
         <v>39</v>
       </c>
       <c r="C80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E80" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F80">
+        <v>6</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
         <v>4</v>
       </c>
-      <c r="G80">
-        <v>6</v>
-      </c>
-      <c r="L80">
-        <v>9</v>
+      <c r="K80">
+        <v>4</v>
       </c>
       <c r="P80" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q80" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R80" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S80" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="U80" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="V80" t="s">
-        <v>208</v>
-      </c>
-      <c r="W80" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="X80" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AB80">
         <v>2017</v>
@@ -5657,52 +5684,52 @@
     </row>
     <row r="81" spans="1:28">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B81" t="s">
         <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E81" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F81">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G81">
-        <v>7</v>
-      </c>
-      <c r="L81">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="H81">
+        <v>6</v>
+      </c>
+      <c r="K81">
+        <v>7</v>
       </c>
       <c r="P81" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q81" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R81" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U81" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="V81" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="W81" t="s">
-        <v>250</v>
-      </c>
-      <c r="X81" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="AB81">
         <v>2017</v>
@@ -5716,52 +5743,49 @@
         <v>40</v>
       </c>
       <c r="C82" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D82" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E82" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F82">
         <v>6</v>
       </c>
       <c r="G82">
+        <v>6</v>
+      </c>
+      <c r="H82">
+        <v>6</v>
+      </c>
+      <c r="I82">
+        <v>7</v>
+      </c>
+      <c r="K82">
         <v>3</v>
       </c>
-      <c r="H82">
-        <v>7</v>
-      </c>
-      <c r="I82">
-        <v>6</v>
-      </c>
-      <c r="M82">
+      <c r="N82">
         <v>7</v>
       </c>
       <c r="P82" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q82" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S82" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="U82" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="V82" t="s">
-        <v>173</v>
-      </c>
-      <c r="W82" t="s">
-        <v>228</v>
-      </c>
-      <c r="X82" t="s">
-        <v>263</v>
+        <v>175</v>
       </c>
       <c r="AB82">
         <v>2017</v>
@@ -5775,52 +5799,49 @@
         <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D83" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E83" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G83">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I83">
+        <v>6</v>
+      </c>
+      <c r="K83">
+        <v>7</v>
+      </c>
+      <c r="N83">
         <v>4</v>
       </c>
-      <c r="M83">
-        <v>4</v>
-      </c>
       <c r="P83" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q83" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S83" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="U83" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V83" t="s">
-        <v>178</v>
-      </c>
-      <c r="W83" t="s">
-        <v>230</v>
-      </c>
-      <c r="X83" t="s">
-        <v>266</v>
+        <v>169</v>
       </c>
       <c r="AB83">
         <v>2017</v>
@@ -5834,46 +5855,46 @@
         <v>40</v>
       </c>
       <c r="C84" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D84" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E84" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H84">
-        <v>7</v>
-      </c>
-      <c r="L84">
-        <v>7</v>
-      </c>
-      <c r="M84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P84" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q84" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S84" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="U84" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="V84" t="s">
-        <v>175</v>
+        <v>221</v>
+      </c>
+      <c r="W84" t="s">
+        <v>262</v>
+      </c>
+      <c r="X84" t="s">
+        <v>290</v>
       </c>
       <c r="AB84">
         <v>2017</v>
@@ -5887,52 +5908,40 @@
         <v>40</v>
       </c>
       <c r="C85" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D85" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E85" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G85">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H85">
-        <v>6</v>
-      </c>
-      <c r="L85">
-        <v>5</v>
-      </c>
-      <c r="M85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P85" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q85" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S85" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="U85" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V85" t="s">
-        <v>180</v>
-      </c>
-      <c r="W85" t="s">
-        <v>231</v>
-      </c>
-      <c r="X85" t="s">
-        <v>267</v>
+        <v>171</v>
       </c>
       <c r="AB85">
         <v>2017</v>
@@ -5946,13 +5955,13 @@
         <v>40</v>
       </c>
       <c r="C86" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D86" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E86" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F86">
         <v>6</v>
@@ -5961,40 +5970,46 @@
         <v>3</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I86">
         <v>6</v>
       </c>
       <c r="J86">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="O86">
+        <v>6</v>
       </c>
       <c r="P86" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q86" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S86" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T86" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="U86" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="V86" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y86" t="s">
-        <v>220</v>
+        <v>222</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>263</v>
       </c>
       <c r="AA86" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="AB86">
         <v>2017</v>
@@ -6008,61 +6023,58 @@
         <v>40</v>
       </c>
       <c r="C87" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D87" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E87" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <v>6</v>
+      </c>
+      <c r="H87">
+        <v>6</v>
+      </c>
+      <c r="I87">
         <v>3</v>
       </c>
-      <c r="G87">
-        <v>6</v>
-      </c>
-      <c r="H87">
-        <v>6</v>
-      </c>
-      <c r="I87">
-        <v>2</v>
-      </c>
       <c r="J87">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="O87">
+        <v>8</v>
       </c>
       <c r="P87" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q87" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S87" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="T87" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="U87" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V87" t="s">
-        <v>182</v>
-      </c>
-      <c r="W87" t="s">
-        <v>233</v>
+        <v>172</v>
+      </c>
+      <c r="X87" t="s">
+        <v>238</v>
       </c>
       <c r="Y87" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA87" t="s">
-        <v>266</v>
+        <v>171</v>
       </c>
       <c r="AB87">
         <v>2017</v>
@@ -6076,16 +6088,16 @@
         <v>40</v>
       </c>
       <c r="C88" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D88" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E88" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F88">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G88">
         <v>6</v>
@@ -6093,26 +6105,29 @@
       <c r="H88">
         <v>6</v>
       </c>
-      <c r="K88">
-        <v>7</v>
-      </c>
       <c r="P88" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q88" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S88" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="U88" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="V88" t="s">
-        <v>175</v>
+        <v>221</v>
+      </c>
+      <c r="W88" t="s">
+        <v>262</v>
+      </c>
+      <c r="X88" t="s">
+        <v>290</v>
       </c>
       <c r="AB88">
         <v>2017</v>
@@ -6126,43 +6141,40 @@
         <v>40</v>
       </c>
       <c r="C89" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D89" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E89" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F89">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G89">
         <v>3</v>
       </c>
       <c r="H89">
-        <v>4</v>
-      </c>
-      <c r="K89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P89" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q89" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S89" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="U89" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V89" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="AB89">
         <v>2017</v>
@@ -6176,40 +6188,46 @@
         <v>40</v>
       </c>
       <c r="C90" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D90" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E90" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F90">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G90">
-        <v>3</v>
-      </c>
-      <c r="K90">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L90">
+        <v>9</v>
       </c>
       <c r="P90" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q90" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S90" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="U90" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="V90" t="s">
-        <v>177</v>
+        <v>222</v>
+      </c>
+      <c r="W90" t="s">
+        <v>263</v>
+      </c>
+      <c r="X90" t="s">
+        <v>291</v>
       </c>
       <c r="AB90">
         <v>2017</v>
@@ -6223,46 +6241,46 @@
         <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D91" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E91" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F91">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G91">
-        <v>6</v>
-      </c>
-      <c r="K91">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="L91">
+        <v>11</v>
       </c>
       <c r="P91" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q91" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R91" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S91" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="U91" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V91" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="W91" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="X91" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="AB91">
         <v>2017</v>
@@ -6276,46 +6294,52 @@
         <v>41</v>
       </c>
       <c r="C92" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D92" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E92" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F92">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G92">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H92">
-        <v>6</v>
-      </c>
-      <c r="L92">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="I92">
+        <v>6</v>
+      </c>
+      <c r="M92">
+        <v>7</v>
       </c>
       <c r="P92" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q92" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="R92" t="s">
+        <v>81</v>
       </c>
       <c r="S92" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="U92" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V92" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="W92" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="X92" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AB92">
         <v>2017</v>
@@ -6329,43 +6353,52 @@
         <v>41</v>
       </c>
       <c r="C93" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D93" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E93" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G93">
         <v>6</v>
       </c>
       <c r="H93">
-        <v>3</v>
-      </c>
-      <c r="L93">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="I93">
+        <v>4</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
       </c>
       <c r="P93" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q93" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="R93" t="s">
+        <v>81</v>
       </c>
       <c r="S93" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="U93" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V93" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="W93" t="s">
-        <v>244</v>
+        <v>240</v>
+      </c>
+      <c r="X93" t="s">
+        <v>278</v>
       </c>
       <c r="AB93">
         <v>2017</v>
@@ -6379,43 +6412,46 @@
         <v>41</v>
       </c>
       <c r="C94" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D94" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E94" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F94">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G94">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H94">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="L94">
+        <v>7</v>
+      </c>
+      <c r="M94">
+        <v>7</v>
       </c>
       <c r="P94" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q94" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="R94" t="s">
+        <v>81</v>
       </c>
       <c r="S94" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="U94" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V94" t="s">
-        <v>211</v>
-      </c>
-      <c r="W94" t="s">
-        <v>252</v>
-      </c>
-      <c r="X94" t="s">
-        <v>280</v>
+        <v>182</v>
       </c>
       <c r="AB94">
         <v>2017</v>
@@ -6429,43 +6465,52 @@
         <v>41</v>
       </c>
       <c r="C95" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D95" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E95" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="L95">
+        <v>5</v>
+      </c>
+      <c r="M95">
+        <v>5</v>
       </c>
       <c r="P95" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q95" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="R95" t="s">
+        <v>81</v>
       </c>
       <c r="S95" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="U95" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V95" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="W95" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X95" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="AB95">
         <v>2017</v>
@@ -6479,52 +6524,55 @@
         <v>41</v>
       </c>
       <c r="C96" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D96" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E96" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F96">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>7</v>
-      </c>
-      <c r="K96">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="J96">
+        <v>3</v>
       </c>
       <c r="P96" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q96" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="R96" t="s">
+        <v>81</v>
       </c>
       <c r="S96" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="T96" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="U96" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V96" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="Y96" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="AA96" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="AB96">
         <v>2017</v>
@@ -6538,52 +6586,61 @@
         <v>41</v>
       </c>
       <c r="C97" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D97" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E97" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F97">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G97">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I97">
-        <v>5</v>
-      </c>
-      <c r="K97">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <v>6</v>
       </c>
       <c r="P97" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q97" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="R97" t="s">
+        <v>81</v>
       </c>
       <c r="S97" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="T97" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="U97" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V97" t="s">
-        <v>199</v>
+        <v>189</v>
+      </c>
+      <c r="W97" t="s">
+        <v>243</v>
       </c>
       <c r="Y97" t="s">
-        <v>285</v>
+        <v>185</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>240</v>
       </c>
       <c r="AA97" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AB97">
         <v>2017</v>
@@ -6597,34 +6654,43 @@
         <v>41</v>
       </c>
       <c r="C98" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D98" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E98" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="H98">
+        <v>6</v>
+      </c>
+      <c r="K98">
+        <v>7</v>
       </c>
       <c r="P98" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q98" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="R98" t="s">
+        <v>81</v>
       </c>
       <c r="S98" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="U98" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V98" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="AB98">
         <v>2017</v>
@@ -6638,40 +6704,43 @@
         <v>41</v>
       </c>
       <c r="C99" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D99" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E99" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F99">
         <v>6</v>
       </c>
       <c r="G99">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="H99">
+        <v>4</v>
+      </c>
+      <c r="K99">
+        <v>4</v>
       </c>
       <c r="P99" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q99" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="R99" t="s">
+        <v>81</v>
       </c>
       <c r="S99" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="U99" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V99" t="s">
-        <v>195</v>
-      </c>
-      <c r="W99" t="s">
-        <v>242</v>
-      </c>
-      <c r="X99" t="s">
-        <v>272</v>
+        <v>191</v>
       </c>
       <c r="AB99">
         <v>2017</v>
@@ -6685,40 +6754,40 @@
         <v>41</v>
       </c>
       <c r="C100" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D100" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E100" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F100">
         <v>6</v>
       </c>
       <c r="G100">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="K100">
+        <v>5</v>
       </c>
       <c r="P100" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q100" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="R100" t="s">
+        <v>81</v>
       </c>
       <c r="S100" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="U100" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V100" t="s">
-        <v>211</v>
-      </c>
-      <c r="W100" t="s">
-        <v>252</v>
-      </c>
-      <c r="X100" t="s">
-        <v>280</v>
+        <v>184</v>
       </c>
       <c r="AB100">
         <v>2017</v>
@@ -6732,37 +6801,46 @@
         <v>41</v>
       </c>
       <c r="C101" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D101" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E101" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F101">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G101">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="K101">
+        <v>7</v>
       </c>
       <c r="P101" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q101" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="R101" t="s">
+        <v>81</v>
       </c>
       <c r="S101" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="U101" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V101" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="W101" t="s">
-        <v>244</v>
+        <v>241</v>
+      </c>
+      <c r="X101" t="s">
+        <v>279</v>
       </c>
       <c r="AB101">
         <v>2017</v>
@@ -6776,43 +6854,46 @@
         <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D102" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E102" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H102">
         <v>6</v>
       </c>
+      <c r="L102">
+        <v>8</v>
+      </c>
       <c r="P102" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q102" t="s">
-        <v>71</v>
-      </c>
-      <c r="R102" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="S102" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="U102" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V102" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="W102" t="s">
-        <v>253</v>
+        <v>265</v>
+      </c>
+      <c r="X102" t="s">
+        <v>293</v>
       </c>
       <c r="AB102">
         <v>2017</v>
@@ -6826,40 +6907,40 @@
         <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D103" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E103" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F103">
+        <v>5</v>
+      </c>
+      <c r="G103">
+        <v>6</v>
+      </c>
+      <c r="H103">
         <v>3</v>
       </c>
-      <c r="G103">
-        <v>4</v>
-      </c>
-      <c r="H103">
-        <v>2</v>
+      <c r="L103">
+        <v>6</v>
       </c>
       <c r="P103" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q103" t="s">
-        <v>71</v>
-      </c>
-      <c r="R103" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="S103" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="U103" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="V103" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="W103" t="s">
         <v>254</v>
@@ -6876,13 +6957,13 @@
         <v>42</v>
       </c>
       <c r="C104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D104" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E104" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F104">
         <v>6</v>
@@ -6894,22 +6975,25 @@
         <v>6</v>
       </c>
       <c r="P104" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q104" t="s">
-        <v>72</v>
-      </c>
-      <c r="R104" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="S104" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="U104" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V104" t="s">
-        <v>215</v>
+        <v>225</v>
+      </c>
+      <c r="W104" t="s">
+        <v>266</v>
+      </c>
+      <c r="X104" t="s">
+        <v>294</v>
       </c>
       <c r="AB104">
         <v>2017</v>
@@ -6923,43 +7007,43 @@
         <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D105" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E105" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
         <v>3</v>
-      </c>
-      <c r="G105">
-        <v>4</v>
       </c>
       <c r="H105">
         <v>3</v>
       </c>
       <c r="P105" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q105" t="s">
-        <v>72</v>
-      </c>
-      <c r="R105" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="S105" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="U105" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="V105" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W105" t="s">
-        <v>245</v>
+        <v>252</v>
+      </c>
+      <c r="X105" t="s">
+        <v>284</v>
       </c>
       <c r="AB105">
         <v>2017</v>
@@ -6973,55 +7057,52 @@
         <v>42</v>
       </c>
       <c r="C106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D106" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E106" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F106">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G106">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H106">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I106">
-        <v>4</v>
-      </c>
-      <c r="J106">
-        <v>6</v>
-      </c>
-      <c r="L106">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="K106">
+        <v>9</v>
       </c>
       <c r="P106" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q106" t="s">
-        <v>73</v>
-      </c>
-      <c r="R106" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="S106" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="T106" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="U106" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V106" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="Y106" t="s">
-        <v>218</v>
+        <v>199</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>252</v>
       </c>
       <c r="AB106">
         <v>2017</v>
@@ -7035,58 +7116,52 @@
         <v>42</v>
       </c>
       <c r="C107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D107" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E107" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F107">
         <v>6</v>
       </c>
       <c r="G107">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I107">
-        <v>6</v>
-      </c>
-      <c r="J107">
-        <v>2</v>
-      </c>
-      <c r="L107">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="K107">
+        <v>7</v>
       </c>
       <c r="P107" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q107" t="s">
-        <v>73</v>
-      </c>
-      <c r="R107" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="S107" t="s">
         <v>120</v>
       </c>
       <c r="T107" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="U107" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="V107" t="s">
-        <v>201</v>
-      </c>
-      <c r="W107" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="Y107" t="s">
-        <v>286</v>
+        <v>298</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>301</v>
       </c>
       <c r="AB107">
         <v>2017</v>
@@ -7100,46 +7175,34 @@
         <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D108" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E108" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
         <v>2</v>
       </c>
-      <c r="G108">
-        <v>6</v>
-      </c>
-      <c r="H108">
-        <v>6</v>
-      </c>
       <c r="P108" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q108" t="s">
-        <v>74</v>
-      </c>
-      <c r="R108" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S108" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="U108" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V108" t="s">
-        <v>216</v>
-      </c>
-      <c r="W108" t="s">
-        <v>255</v>
-      </c>
-      <c r="X108" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="AB108">
         <v>2017</v>
@@ -7153,46 +7216,40 @@
         <v>42</v>
       </c>
       <c r="C109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D109" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E109" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F109">
         <v>6</v>
       </c>
       <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P109" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q109" t="s">
-        <v>74</v>
-      </c>
-      <c r="R109" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S109" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="U109" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="V109" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="W109" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="X109" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AB109">
         <v>2017</v>
@@ -7206,37 +7263,40 @@
         <v>42</v>
       </c>
       <c r="C110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D110" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E110" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P110" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q110" t="s">
-        <v>75</v>
-      </c>
-      <c r="R110" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S110" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="U110" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V110" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="W110" t="s">
+        <v>266</v>
+      </c>
+      <c r="X110" t="s">
+        <v>294</v>
       </c>
       <c r="AB110">
         <v>2017</v>
@@ -7250,37 +7310,34 @@
         <v>42</v>
       </c>
       <c r="C111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D111" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E111" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F111">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G111">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P111" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q111" t="s">
-        <v>75</v>
-      </c>
-      <c r="R111" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S111" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="U111" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="V111" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="W111" t="s">
         <v>254</v>
@@ -7291,19 +7348,19 @@
     </row>
     <row r="112" spans="1:28">
       <c r="A112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B112" t="s">
         <v>43</v>
       </c>
       <c r="C112" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D112" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E112" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F112">
         <v>6</v>
@@ -7314,32 +7371,26 @@
       <c r="H112">
         <v>6</v>
       </c>
-      <c r="I112">
-        <v>7</v>
-      </c>
-      <c r="K112">
-        <v>4</v>
-      </c>
       <c r="P112" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q112" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="R112" t="s">
+        <v>81</v>
       </c>
       <c r="S112" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U112" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="V112" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="W112" t="s">
-        <v>248</v>
-      </c>
-      <c r="X112" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="AB112">
         <v>2017</v>
@@ -7347,52 +7398,49 @@
     </row>
     <row r="113" spans="1:28">
       <c r="A113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B113" t="s">
         <v>43</v>
       </c>
       <c r="C113" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D113" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E113" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F113">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G113">
         <v>4</v>
       </c>
       <c r="H113">
-        <v>3</v>
-      </c>
-      <c r="I113">
-        <v>5</v>
-      </c>
-      <c r="K113">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P113" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q113" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="R113" t="s">
+        <v>81</v>
       </c>
       <c r="S113" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="U113" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="V113" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="W113" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="AB113">
         <v>2017</v>
@@ -7400,52 +7448,46 @@
     </row>
     <row r="114" spans="1:28">
       <c r="A114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B114" t="s">
         <v>43</v>
       </c>
       <c r="C114" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D114" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E114" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F114">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G114">
         <v>6</v>
       </c>
       <c r="H114">
-        <v>7</v>
-      </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-      <c r="J114">
-        <v>2</v>
-      </c>
-      <c r="M114">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P114" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q114" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="R114" t="s">
+        <v>81</v>
       </c>
       <c r="S114" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="U114" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="V114" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="AB114">
         <v>2017</v>
@@ -7453,52 +7495,49 @@
     </row>
     <row r="115" spans="1:28">
       <c r="A115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B115" t="s">
         <v>43</v>
       </c>
       <c r="C115" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D115" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E115" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F115">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G115">
+        <v>4</v>
+      </c>
+      <c r="H115">
         <v>3</v>
       </c>
-      <c r="H115">
-        <v>6</v>
-      </c>
-      <c r="I115">
-        <v>6</v>
-      </c>
-      <c r="J115">
-        <v>6</v>
-      </c>
-      <c r="M115">
-        <v>5</v>
-      </c>
       <c r="P115" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q115" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="R115" t="s">
+        <v>81</v>
       </c>
       <c r="S115" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="U115" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="V115" t="s">
-        <v>175</v>
+        <v>215</v>
+      </c>
+      <c r="W115" t="s">
+        <v>259</v>
       </c>
       <c r="AB115">
         <v>2017</v>
@@ -7506,49 +7545,61 @@
     </row>
     <row r="116" spans="1:28">
       <c r="A116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B116" t="s">
         <v>43</v>
       </c>
       <c r="C116" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D116" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E116" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F116">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G116">
+        <v>7</v>
+      </c>
+      <c r="H116">
+        <v>6</v>
+      </c>
+      <c r="I116">
         <v>4</v>
       </c>
-      <c r="H116">
-        <v>0</v>
+      <c r="J116">
+        <v>6</v>
+      </c>
+      <c r="L116">
+        <v>7</v>
       </c>
       <c r="P116" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q116" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="R116" t="s">
+        <v>81</v>
       </c>
       <c r="S116" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="T116" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="U116" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="V116" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="Y116" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="AB116">
         <v>2017</v>
@@ -7556,19 +7607,19 @@
     </row>
     <row r="117" spans="1:28">
       <c r="A117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B117" t="s">
         <v>43</v>
       </c>
       <c r="C117" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D117" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E117" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F117">
         <v>6</v>
@@ -7577,37 +7628,43 @@
         <v>6</v>
       </c>
       <c r="H117">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>6</v>
+      </c>
+      <c r="J117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>4</v>
       </c>
       <c r="P117" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q117" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="R117" t="s">
+        <v>81</v>
       </c>
       <c r="S117" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="T117" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="U117" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="V117" t="s">
-        <v>220</v>
-      </c>
-      <c r="X117" t="s">
-        <v>283</v>
+        <v>215</v>
+      </c>
+      <c r="W117" t="s">
+        <v>259</v>
       </c>
       <c r="Y117" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z117" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA117" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="AB117">
         <v>2017</v>
@@ -7615,22 +7672,22 @@
     </row>
     <row r="118" spans="1:28">
       <c r="A118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B118" t="s">
         <v>43</v>
       </c>
       <c r="C118" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D118" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E118" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F118">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G118">
         <v>6</v>
@@ -7638,32 +7695,29 @@
       <c r="H118">
         <v>6</v>
       </c>
-      <c r="I118">
-        <v>6</v>
-      </c>
-      <c r="K118">
-        <v>4</v>
-      </c>
       <c r="P118" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q118" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="R118" t="s">
+        <v>81</v>
       </c>
       <c r="S118" t="s">
         <v>126</v>
       </c>
       <c r="U118" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="V118" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="W118" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="X118" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="AB118">
         <v>2017</v>
@@ -7671,49 +7725,52 @@
     </row>
     <row r="119" spans="1:28">
       <c r="A119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B119" t="s">
         <v>43</v>
       </c>
       <c r="C119" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D119" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E119" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F119">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G119">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>4</v>
       </c>
-      <c r="I119">
-        <v>4</v>
-      </c>
-      <c r="K119">
-        <v>7</v>
-      </c>
       <c r="P119" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q119" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="R119" t="s">
+        <v>81</v>
       </c>
       <c r="S119" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="U119" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="V119" t="s">
-        <v>175</v>
+        <v>228</v>
+      </c>
+      <c r="W119" t="s">
+        <v>268</v>
+      </c>
+      <c r="X119" t="s">
+        <v>295</v>
       </c>
       <c r="AB119">
         <v>2017</v>
@@ -7721,43 +7778,43 @@
     </row>
     <row r="120" spans="1:28">
       <c r="A120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B120" t="s">
         <v>43</v>
       </c>
       <c r="C120" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D120" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E120" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F120">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G120">
-        <v>7</v>
-      </c>
-      <c r="H120">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q120" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="R120" t="s">
+        <v>81</v>
       </c>
       <c r="S120" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="U120" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="V120" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="AB120">
         <v>2017</v>
@@ -7765,49 +7822,46 @@
     </row>
     <row r="121" spans="1:28">
       <c r="A121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B121" t="s">
         <v>43</v>
       </c>
       <c r="C121" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D121" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E121" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F121">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G121">
-        <v>5</v>
-      </c>
-      <c r="H121">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P121" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q121" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="R121" t="s">
+        <v>81</v>
       </c>
       <c r="S121" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="U121" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="V121" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="W121" t="s">
-        <v>228</v>
-      </c>
-      <c r="X121" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AB121">
         <v>2017</v>
@@ -7821,16 +7875,16 @@
         <v>44</v>
       </c>
       <c r="C122" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D122" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E122" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G122">
         <v>6</v>
@@ -7839,34 +7893,31 @@
         <v>6</v>
       </c>
       <c r="I122">
-        <v>6</v>
-      </c>
-      <c r="M122">
-        <v>7</v>
-      </c>
-      <c r="N122">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="K122">
+        <v>4</v>
       </c>
       <c r="P122" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q122" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S122" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="U122" t="s">
         <v>155</v>
       </c>
       <c r="V122" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="W122" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="X122" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="AB122">
         <v>2017</v>
@@ -7880,52 +7931,46 @@
         <v>44</v>
       </c>
       <c r="C123" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D123" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E123" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F123">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G123">
+        <v>4</v>
+      </c>
+      <c r="H123">
         <v>3</v>
       </c>
-      <c r="H123">
-        <v>7</v>
-      </c>
       <c r="I123">
-        <v>7</v>
-      </c>
-      <c r="M123">
-        <v>9</v>
-      </c>
-      <c r="N123">
+        <v>5</v>
+      </c>
+      <c r="K123">
         <v>7</v>
       </c>
       <c r="P123" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q123" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S123" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="U123" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="V123" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="W123" t="s">
-        <v>255</v>
-      </c>
-      <c r="X123" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="AB123">
         <v>2017</v>
@@ -7939,40 +7984,46 @@
         <v>44</v>
       </c>
       <c r="C124" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D124" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E124" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F124">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G124">
         <v>6</v>
       </c>
       <c r="H124">
-        <v>6</v>
-      </c>
-      <c r="K124">
+        <v>7</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>2</v>
+      </c>
+      <c r="M124">
         <v>7</v>
       </c>
       <c r="P124" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q124" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S124" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="U124" t="s">
         <v>155</v>
       </c>
       <c r="V124" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="AB124">
         <v>2017</v>
@@ -7986,13 +8037,13 @@
         <v>44</v>
       </c>
       <c r="C125" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D125" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E125" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F125">
         <v>6</v>
@@ -8001,31 +8052,31 @@
         <v>3</v>
       </c>
       <c r="H125">
-        <v>3</v>
-      </c>
-      <c r="K125">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="I125">
+        <v>6</v>
+      </c>
+      <c r="J125">
+        <v>6</v>
+      </c>
+      <c r="M125">
+        <v>5</v>
       </c>
       <c r="P125" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q125" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S125" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="U125" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="V125" t="s">
-        <v>222</v>
-      </c>
-      <c r="W125" t="s">
-        <v>258</v>
-      </c>
-      <c r="X125" t="s">
-        <v>273</v>
+        <v>182</v>
       </c>
       <c r="AB125">
         <v>2017</v>
@@ -8039,55 +8090,43 @@
         <v>44</v>
       </c>
       <c r="C126" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D126" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E126" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F126">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G126">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H126">
-        <v>7</v>
-      </c>
-      <c r="M126">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P126" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q126" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S126" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="T126" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="U126" t="s">
         <v>155</v>
       </c>
       <c r="V126" t="s">
-        <v>191</v>
-      </c>
-      <c r="W126" t="s">
-        <v>239</v>
-      </c>
-      <c r="X126" t="s">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="Y126" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA126" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="AB126">
         <v>2017</v>
@@ -8101,49 +8140,52 @@
         <v>44</v>
       </c>
       <c r="C127" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D127" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E127" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H127">
         <v>6</v>
       </c>
-      <c r="M127">
-        <v>3</v>
-      </c>
       <c r="P127" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q127" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S127" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="T127" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="U127" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="V127" t="s">
-        <v>223</v>
-      </c>
-      <c r="W127" t="s">
-        <v>259</v>
+        <v>230</v>
+      </c>
+      <c r="X127" t="s">
+        <v>296</v>
       </c>
       <c r="Y127" t="s">
-        <v>218</v>
+        <v>180</v>
+      </c>
+      <c r="Z127" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>275</v>
       </c>
       <c r="AB127">
         <v>2017</v>
@@ -8157,43 +8199,49 @@
         <v>44</v>
       </c>
       <c r="C128" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D128" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E128" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F128">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G128">
         <v>6</v>
       </c>
       <c r="H128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I128">
         <v>6</v>
       </c>
-      <c r="M128">
-        <v>7</v>
+      <c r="K128">
+        <v>4</v>
       </c>
       <c r="P128" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q128" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S128" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="U128" t="s">
         <v>155</v>
       </c>
       <c r="V128" t="s">
         <v>221</v>
+      </c>
+      <c r="W128" t="s">
+        <v>262</v>
+      </c>
+      <c r="X128" t="s">
+        <v>290</v>
       </c>
       <c r="AB128">
         <v>2017</v>
@@ -8207,49 +8255,43 @@
         <v>44</v>
       </c>
       <c r="C129" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D129" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E129" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F129">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H129">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I129">
-        <v>2</v>
-      </c>
-      <c r="M129">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="K129">
+        <v>7</v>
       </c>
       <c r="P129" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q129" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S129" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="U129" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="V129" t="s">
-        <v>216</v>
-      </c>
-      <c r="W129" t="s">
-        <v>255</v>
-      </c>
-      <c r="X129" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="AB129">
         <v>2017</v>
@@ -8263,19 +8305,37 @@
         <v>44</v>
       </c>
       <c r="C130" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D130" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E130" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="F130">
+        <v>6</v>
+      </c>
+      <c r="G130">
+        <v>7</v>
+      </c>
+      <c r="H130">
+        <v>6</v>
       </c>
       <c r="P130" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q130" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="S130" t="s">
+        <v>89</v>
+      </c>
+      <c r="U130" t="s">
+        <v>155</v>
+      </c>
+      <c r="V130" t="s">
+        <v>175</v>
       </c>
       <c r="AB130">
         <v>2017</v>
@@ -8283,52 +8343,49 @@
     </row>
     <row r="131" spans="1:28">
       <c r="A131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B131" t="s">
         <v>44</v>
       </c>
       <c r="C131" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D131" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E131" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F131">
+        <v>4</v>
+      </c>
+      <c r="G131">
         <v>5</v>
       </c>
-      <c r="G131">
-        <v>3</v>
-      </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P131" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q131" t="s">
-        <v>71</v>
-      </c>
-      <c r="R131" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S131" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="U131" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V131" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="W131" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="X131" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AB131">
         <v>2017</v>
@@ -8336,22 +8393,22 @@
     </row>
     <row r="132" spans="1:28">
       <c r="A132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C132" t="s">
         <v>46</v>
       </c>
       <c r="D132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E132" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F132">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G132">
         <v>6</v>
@@ -8359,29 +8416,35 @@
       <c r="H132">
         <v>6</v>
       </c>
+      <c r="I132">
+        <v>6</v>
+      </c>
+      <c r="M132">
+        <v>7</v>
+      </c>
+      <c r="N132">
+        <v>5</v>
+      </c>
       <c r="P132" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q132" t="s">
-        <v>71</v>
-      </c>
-      <c r="R132" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="S132" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="U132" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="V132" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="W132" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="X132" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="AB132">
         <v>2017</v>
@@ -8389,46 +8452,58 @@
     </row>
     <row r="133" spans="1:28">
       <c r="A133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B133" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C133" t="s">
         <v>46</v>
       </c>
       <c r="D133" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E133" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F133">
         <v>6</v>
       </c>
       <c r="G133">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H133">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="I133">
+        <v>7</v>
+      </c>
+      <c r="M133">
+        <v>9</v>
+      </c>
+      <c r="N133">
+        <v>7</v>
       </c>
       <c r="P133" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q133" t="s">
-        <v>72</v>
-      </c>
-      <c r="R133" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="S133" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="U133" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="V133" t="s">
-        <v>221</v>
+        <v>212</v>
+      </c>
+      <c r="W133" t="s">
+        <v>258</v>
+      </c>
+      <c r="X133" t="s">
+        <v>287</v>
       </c>
       <c r="AB133">
         <v>2017</v>
@@ -8436,46 +8511,46 @@
     </row>
     <row r="134" spans="1:28">
       <c r="A134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B134" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C134" t="s">
         <v>46</v>
       </c>
       <c r="D134" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E134" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F134">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G134">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K134">
+        <v>7</v>
       </c>
       <c r="P134" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q134" t="s">
-        <v>72</v>
-      </c>
-      <c r="R134" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="S134" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="U134" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="V134" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="AB134">
         <v>2017</v>
@@ -8483,19 +8558,19 @@
     </row>
     <row r="135" spans="1:28">
       <c r="A135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B135" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C135" t="s">
         <v>46</v>
       </c>
       <c r="D135" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E135" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F135">
         <v>6</v>
@@ -8504,46 +8579,31 @@
         <v>3</v>
       </c>
       <c r="H135">
-        <v>7</v>
-      </c>
-      <c r="I135">
-        <v>6</v>
-      </c>
-      <c r="M135">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
       </c>
       <c r="P135" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q135" t="s">
-        <v>73</v>
-      </c>
-      <c r="R135" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="S135" t="s">
-        <v>106</v>
-      </c>
-      <c r="T135" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="U135" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="V135" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="W135" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y135" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z135" t="s">
-        <v>239</v>
-      </c>
-      <c r="AA135" t="s">
         <v>270</v>
+      </c>
+      <c r="X135" t="s">
+        <v>285</v>
       </c>
       <c r="AB135">
         <v>2017</v>
@@ -8551,64 +8611,61 @@
     </row>
     <row r="136" spans="1:28">
       <c r="A136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B136" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C136" t="s">
         <v>46</v>
       </c>
       <c r="D136" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E136" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G136">
         <v>6</v>
       </c>
       <c r="H136">
-        <v>6</v>
-      </c>
-      <c r="I136">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M136">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P136" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q136" t="s">
-        <v>73</v>
-      </c>
-      <c r="R136" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="S136" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="T136" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="U136" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="V136" t="s">
-        <v>171</v>
+        <v>198</v>
+      </c>
+      <c r="W136" t="s">
+        <v>249</v>
+      </c>
+      <c r="X136" t="s">
+        <v>282</v>
       </c>
       <c r="Y136" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z136" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="AA136" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="AB136">
         <v>2017</v>
@@ -8616,49 +8673,55 @@
     </row>
     <row r="137" spans="1:28">
       <c r="A137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B137" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C137" t="s">
         <v>46</v>
       </c>
       <c r="D137" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E137" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F137">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137">
+        <v>6</v>
+      </c>
+      <c r="M137">
         <v>3</v>
       </c>
-      <c r="H137">
-        <v>2</v>
-      </c>
-      <c r="K137">
-        <v>5</v>
-      </c>
       <c r="P137" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q137" t="s">
-        <v>74</v>
-      </c>
-      <c r="R137" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="S137" t="s">
-        <v>140</v>
+        <v>147</v>
+      </c>
+      <c r="T137" t="s">
+        <v>127</v>
       </c>
       <c r="U137" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="V137" t="s">
-        <v>221</v>
+        <v>233</v>
+      </c>
+      <c r="W137" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y137" t="s">
+        <v>213</v>
       </c>
       <c r="AB137">
         <v>2017</v>
@@ -8666,55 +8729,49 @@
     </row>
     <row r="138" spans="1:28">
       <c r="A138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B138" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C138" t="s">
         <v>46</v>
       </c>
       <c r="D138" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E138" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F138">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G138">
         <v>6</v>
       </c>
       <c r="H138">
-        <v>6</v>
-      </c>
-      <c r="K138">
+        <v>7</v>
+      </c>
+      <c r="I138">
+        <v>6</v>
+      </c>
+      <c r="M138">
         <v>7</v>
       </c>
       <c r="P138" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q138" t="s">
-        <v>74</v>
-      </c>
-      <c r="R138" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S138" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="U138" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="V138" t="s">
-        <v>207</v>
-      </c>
-      <c r="W138" t="s">
-        <v>248</v>
-      </c>
-      <c r="X138" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="AB138">
         <v>2017</v>
@@ -8722,52 +8779,55 @@
     </row>
     <row r="139" spans="1:28">
       <c r="A139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B139" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C139" t="s">
         <v>46</v>
       </c>
       <c r="D139" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E139" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F139">
         <v>6</v>
       </c>
       <c r="G139">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H139">
         <v>6</v>
       </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>5</v>
+      </c>
       <c r="P139" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q139" t="s">
-        <v>75</v>
-      </c>
-      <c r="R139" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S139" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="U139" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="V139" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="W139" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="X139" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AB139">
         <v>2017</v>
@@ -8778,45 +8838,537 @@
         <v>31</v>
       </c>
       <c r="B140" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D140" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E140" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F140">
+        <v>5</v>
+      </c>
+      <c r="G140">
         <v>3</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>1</v>
       </c>
-      <c r="H140">
+      <c r="P140" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>73</v>
+      </c>
+      <c r="R140" t="s">
+        <v>80</v>
+      </c>
+      <c r="S140" t="s">
+        <v>138</v>
+      </c>
+      <c r="U140" t="s">
+        <v>161</v>
+      </c>
+      <c r="V140" t="s">
+        <v>224</v>
+      </c>
+      <c r="W140" t="s">
+        <v>265</v>
+      </c>
+      <c r="X140" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB140">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28">
+      <c r="A141" t="s">
+        <v>31</v>
+      </c>
+      <c r="B141" t="s">
+        <v>45</v>
+      </c>
+      <c r="C141" t="s">
+        <v>47</v>
+      </c>
+      <c r="D141" t="s">
+        <v>61</v>
+      </c>
+      <c r="E141" t="s">
+        <v>68</v>
+      </c>
+      <c r="F141">
+        <v>7</v>
+      </c>
+      <c r="G141">
+        <v>6</v>
+      </c>
+      <c r="H141">
+        <v>6</v>
+      </c>
+      <c r="P141" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>73</v>
+      </c>
+      <c r="R141" t="s">
+        <v>80</v>
+      </c>
+      <c r="S141" t="s">
+        <v>135</v>
+      </c>
+      <c r="U141" t="s">
+        <v>155</v>
+      </c>
+      <c r="V141" t="s">
+        <v>221</v>
+      </c>
+      <c r="W141" t="s">
+        <v>262</v>
+      </c>
+      <c r="X141" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB141">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28">
+      <c r="A142" t="s">
+        <v>31</v>
+      </c>
+      <c r="B142" t="s">
+        <v>45</v>
+      </c>
+      <c r="C142" t="s">
+        <v>47</v>
+      </c>
+      <c r="D142" t="s">
+        <v>61</v>
+      </c>
+      <c r="E142" t="s">
+        <v>68</v>
+      </c>
+      <c r="F142">
+        <v>6</v>
+      </c>
+      <c r="G142">
+        <v>6</v>
+      </c>
+      <c r="H142">
+        <v>6</v>
+      </c>
+      <c r="P142" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>74</v>
+      </c>
+      <c r="R142" t="s">
+        <v>80</v>
+      </c>
+      <c r="S142" t="s">
+        <v>145</v>
+      </c>
+      <c r="U142" t="s">
+        <v>161</v>
+      </c>
+      <c r="V142" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB142">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28">
+      <c r="A143" t="s">
+        <v>31</v>
+      </c>
+      <c r="B143" t="s">
+        <v>45</v>
+      </c>
+      <c r="C143" t="s">
+        <v>47</v>
+      </c>
+      <c r="D143" t="s">
+        <v>61</v>
+      </c>
+      <c r="E143" t="s">
+        <v>68</v>
+      </c>
+      <c r="F143">
+        <v>3</v>
+      </c>
+      <c r="G143">
+        <v>2</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="P143" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>74</v>
+      </c>
+      <c r="R143" t="s">
+        <v>80</v>
+      </c>
+      <c r="S143" t="s">
+        <v>89</v>
+      </c>
+      <c r="U143" t="s">
+        <v>155</v>
+      </c>
+      <c r="V143" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB143">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28">
+      <c r="A144" t="s">
+        <v>31</v>
+      </c>
+      <c r="B144" t="s">
+        <v>45</v>
+      </c>
+      <c r="C144" t="s">
+        <v>47</v>
+      </c>
+      <c r="D144" t="s">
+        <v>61</v>
+      </c>
+      <c r="E144" t="s">
+        <v>68</v>
+      </c>
+      <c r="F144">
+        <v>6</v>
+      </c>
+      <c r="G144">
+        <v>3</v>
+      </c>
+      <c r="H144">
+        <v>7</v>
+      </c>
+      <c r="I144">
+        <v>6</v>
+      </c>
+      <c r="M144">
+        <v>7</v>
+      </c>
+      <c r="P144" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>75</v>
+      </c>
+      <c r="R144" t="s">
+        <v>80</v>
+      </c>
+      <c r="S144" t="s">
+        <v>108</v>
+      </c>
+      <c r="T144" t="s">
+        <v>112</v>
+      </c>
+      <c r="U144" t="s">
+        <v>161</v>
+      </c>
+      <c r="V144" t="s">
+        <v>194</v>
+      </c>
+      <c r="W144" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z144" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA144" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB144">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28">
+      <c r="A145" t="s">
+        <v>31</v>
+      </c>
+      <c r="B145" t="s">
+        <v>45</v>
+      </c>
+      <c r="C145" t="s">
+        <v>47</v>
+      </c>
+      <c r="D145" t="s">
+        <v>61</v>
+      </c>
+      <c r="E145" t="s">
+        <v>68</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>6</v>
+      </c>
+      <c r="H145">
+        <v>6</v>
+      </c>
+      <c r="I145">
+        <v>4</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="P145" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>75</v>
+      </c>
+      <c r="R145" t="s">
+        <v>80</v>
+      </c>
+      <c r="S145" t="s">
+        <v>92</v>
+      </c>
+      <c r="T145" t="s">
+        <v>136</v>
+      </c>
+      <c r="U145" t="s">
+        <v>155</v>
+      </c>
+      <c r="V145" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y145" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z145" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA145" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB145">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28">
+      <c r="A146" t="s">
+        <v>31</v>
+      </c>
+      <c r="B146" t="s">
+        <v>45</v>
+      </c>
+      <c r="C146" t="s">
+        <v>47</v>
+      </c>
+      <c r="D146" t="s">
+        <v>61</v>
+      </c>
+      <c r="E146" t="s">
+        <v>68</v>
+      </c>
+      <c r="F146">
+        <v>6</v>
+      </c>
+      <c r="G146">
+        <v>3</v>
+      </c>
+      <c r="H146">
+        <v>2</v>
+      </c>
+      <c r="K146">
+        <v>5</v>
+      </c>
+      <c r="P146" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>76</v>
+      </c>
+      <c r="R146" t="s">
+        <v>80</v>
+      </c>
+      <c r="S146" t="s">
+        <v>145</v>
+      </c>
+      <c r="U146" t="s">
+        <v>161</v>
+      </c>
+      <c r="V146" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB146">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28">
+      <c r="A147" t="s">
+        <v>31</v>
+      </c>
+      <c r="B147" t="s">
+        <v>45</v>
+      </c>
+      <c r="C147" t="s">
+        <v>47</v>
+      </c>
+      <c r="D147" t="s">
+        <v>61</v>
+      </c>
+      <c r="E147" t="s">
+        <v>68</v>
+      </c>
+      <c r="F147">
+        <v>7</v>
+      </c>
+      <c r="G147">
+        <v>6</v>
+      </c>
+      <c r="H147">
+        <v>6</v>
+      </c>
+      <c r="K147">
+        <v>7</v>
+      </c>
+      <c r="P147" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>76</v>
+      </c>
+      <c r="R147" t="s">
+        <v>80</v>
+      </c>
+      <c r="S147" t="s">
+        <v>135</v>
+      </c>
+      <c r="U147" t="s">
+        <v>155</v>
+      </c>
+      <c r="V147" t="s">
+        <v>221</v>
+      </c>
+      <c r="W147" t="s">
+        <v>262</v>
+      </c>
+      <c r="X147" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB147">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28">
+      <c r="A148" t="s">
+        <v>31</v>
+      </c>
+      <c r="B148" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148" t="s">
+        <v>47</v>
+      </c>
+      <c r="D148" t="s">
+        <v>61</v>
+      </c>
+      <c r="E148" t="s">
+        <v>68</v>
+      </c>
+      <c r="F148">
+        <v>6</v>
+      </c>
+      <c r="G148">
+        <v>6</v>
+      </c>
+      <c r="H148">
+        <v>6</v>
+      </c>
+      <c r="P148" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>77</v>
+      </c>
+      <c r="R148" t="s">
+        <v>80</v>
+      </c>
+      <c r="S148" t="s">
+        <v>138</v>
+      </c>
+      <c r="U148" t="s">
+        <v>161</v>
+      </c>
+      <c r="V148" t="s">
+        <v>224</v>
+      </c>
+      <c r="W148" t="s">
+        <v>265</v>
+      </c>
+      <c r="X148" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB148">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28">
+      <c r="A149" t="s">
+        <v>31</v>
+      </c>
+      <c r="B149" t="s">
+        <v>45</v>
+      </c>
+      <c r="C149" t="s">
+        <v>47</v>
+      </c>
+      <c r="D149" t="s">
+        <v>61</v>
+      </c>
+      <c r="E149" t="s">
+        <v>68</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
         <v>0</v>
       </c>
-      <c r="P140" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q140" t="s">
-        <v>75</v>
-      </c>
-      <c r="R140" t="s">
-        <v>78</v>
-      </c>
-      <c r="S140" t="s">
-        <v>87</v>
-      </c>
-      <c r="U140" t="s">
-        <v>149</v>
-      </c>
-      <c r="V140" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB140">
+      <c r="P149" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>77</v>
+      </c>
+      <c r="R149" t="s">
+        <v>80</v>
+      </c>
+      <c r="S149" t="s">
+        <v>89</v>
+      </c>
+      <c r="U149" t="s">
+        <v>155</v>
+      </c>
+      <c r="V149" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB149">
         <v>2017</v>
       </c>
     </row>

--- a/davis_2017.xlsx
+++ b/davis_2017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="301">
   <si>
     <t>Date</t>
   </si>
@@ -476,9 +476,6 @@
   </si>
   <si>
     <t>ITALY</t>
-  </si>
-  <si>
-    <t>GERMANY</t>
   </si>
   <si>
     <t>BELGIUM</t>
@@ -1277,7 +1274,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB149"/>
+  <dimension ref="A1:AB169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1407,13 +1404,13 @@
         <v>152</v>
       </c>
       <c r="V2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AB2">
         <v>2017</v>
@@ -1457,7 +1454,7 @@
         <v>153</v>
       </c>
       <c r="V3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AB3">
         <v>2017</v>
@@ -1507,7 +1504,7 @@
         <v>152</v>
       </c>
       <c r="V4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AB4">
         <v>2017</v>
@@ -1557,7 +1554,7 @@
         <v>153</v>
       </c>
       <c r="V5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB5">
         <v>2017</v>
@@ -1613,10 +1610,10 @@
         <v>152</v>
       </c>
       <c r="V6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB6">
         <v>2017</v>
@@ -1672,19 +1669,19 @@
         <v>153</v>
       </c>
       <c r="V7" t="s">
+        <v>171</v>
+      </c>
+      <c r="X7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y7" t="s">
         <v>172</v>
       </c>
-      <c r="X7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>173</v>
-      </c>
       <c r="Z7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AA7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AB7">
         <v>2017</v>
@@ -1734,7 +1731,7 @@
         <v>152</v>
       </c>
       <c r="V8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AB8">
         <v>2017</v>
@@ -1784,7 +1781,7 @@
         <v>153</v>
       </c>
       <c r="V9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AB9">
         <v>2017</v>
@@ -1834,13 +1831,13 @@
         <v>152</v>
       </c>
       <c r="V10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AB10">
         <v>2017</v>
@@ -1890,13 +1887,13 @@
         <v>153</v>
       </c>
       <c r="V11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AB11">
         <v>2017</v>
@@ -1951,11 +1948,8 @@
       <c r="S12" t="s">
         <v>88</v>
       </c>
-      <c r="U12" t="s">
-        <v>154</v>
-      </c>
       <c r="V12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB12">
         <v>2017</v>
@@ -2011,10 +2005,10 @@
         <v>89</v>
       </c>
       <c r="U13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB13">
         <v>2017</v>
@@ -2057,17 +2051,14 @@
       <c r="S14" t="s">
         <v>90</v>
       </c>
-      <c r="U14" t="s">
-        <v>154</v>
-      </c>
       <c r="V14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB14">
         <v>2017</v>
@@ -2111,10 +2102,10 @@
         <v>91</v>
       </c>
       <c r="U15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB15">
         <v>2017</v>
@@ -2169,23 +2160,20 @@
       <c r="T16" t="s">
         <v>93</v>
       </c>
-      <c r="U16" t="s">
-        <v>154</v>
-      </c>
       <c r="V16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W16" t="s">
+        <v>235</v>
+      </c>
+      <c r="X16" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z16" t="s">
         <v>236</v>
-      </c>
-      <c r="X16" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>237</v>
       </c>
       <c r="AB16">
         <v>2017</v>
@@ -2241,19 +2229,19 @@
         <v>136</v>
       </c>
       <c r="U17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AB17">
         <v>2017</v>
@@ -2302,17 +2290,14 @@
       <c r="S18" t="s">
         <v>90</v>
       </c>
-      <c r="U18" t="s">
-        <v>154</v>
-      </c>
       <c r="V18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB18">
         <v>2017</v>
@@ -2362,10 +2347,10 @@
         <v>89</v>
       </c>
       <c r="U19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB19">
         <v>2017</v>
@@ -2405,14 +2390,11 @@
       <c r="S20" t="s">
         <v>93</v>
       </c>
-      <c r="U20" t="s">
-        <v>154</v>
-      </c>
       <c r="V20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AB20">
         <v>2017</v>
@@ -2453,10 +2435,10 @@
         <v>92</v>
       </c>
       <c r="U21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AB21">
         <v>2017</v>
@@ -2500,16 +2482,16 @@
         <v>94</v>
       </c>
       <c r="U22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="W22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB22">
         <v>2017</v>
@@ -2532,13 +2514,13 @@
         <v>65</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P23" t="s">
         <v>69</v>
@@ -2550,19 +2532,16 @@
         <v>78</v>
       </c>
       <c r="S23" t="s">
-        <v>95</v>
-      </c>
-      <c r="U23" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="V23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="W23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="X23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AB23">
         <v>2017</v>
@@ -2585,31 +2564,37 @@
         <v>65</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P24" t="s">
         <v>69</v>
       </c>
       <c r="Q24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R24" t="s">
         <v>78</v>
       </c>
       <c r="S24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U24" t="s">
         <v>156</v>
       </c>
       <c r="V24" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="W24" t="s">
+        <v>238</v>
+      </c>
+      <c r="X24" t="s">
+        <v>275</v>
       </c>
       <c r="AB24">
         <v>2017</v>
@@ -2632,13 +2617,13 @@
         <v>65</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P25" t="s">
         <v>69</v>
@@ -2650,16 +2635,13 @@
         <v>78</v>
       </c>
       <c r="S25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V25" t="s">
-        <v>183</v>
-      </c>
-      <c r="X25" t="s">
-        <v>277</v>
+        <v>181</v>
       </c>
       <c r="AB25">
         <v>2017</v>
@@ -2694,28 +2676,16 @@
         <v>69</v>
       </c>
       <c r="Q26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R26" t="s">
         <v>78</v>
       </c>
       <c r="S26" t="s">
-        <v>98</v>
-      </c>
-      <c r="T26" t="s">
-        <v>144</v>
-      </c>
-      <c r="U26" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="V26" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>296</v>
+        <v>181</v>
       </c>
       <c r="AB26">
         <v>2017</v>
@@ -2738,10 +2708,10 @@
         <v>65</v>
       </c>
       <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
         <v>3</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2750,7 +2720,7 @@
         <v>69</v>
       </c>
       <c r="Q27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R27" t="s">
         <v>78</v>
@@ -2758,25 +2728,13 @@
       <c r="S27" t="s">
         <v>97</v>
       </c>
-      <c r="T27" t="s">
-        <v>95</v>
-      </c>
       <c r="U27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X27" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>239</v>
-      </c>
-      <c r="AA27" t="s">
         <v>276</v>
       </c>
       <c r="AB27">
@@ -2803,16 +2761,16 @@
         <v>6</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P28" t="s">
         <v>69</v>
       </c>
       <c r="Q28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R28" t="s">
         <v>78</v>
@@ -2820,11 +2778,20 @@
       <c r="S28" t="s">
         <v>98</v>
       </c>
+      <c r="T28" t="s">
+        <v>144</v>
+      </c>
       <c r="U28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V28" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>295</v>
       </c>
       <c r="AB28">
         <v>2017</v>
@@ -2847,10 +2814,10 @@
         <v>65</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -2859,25 +2826,28 @@
         <v>69</v>
       </c>
       <c r="Q29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R29" t="s">
         <v>78</v>
       </c>
       <c r="S29" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="T29" t="s">
+        <v>144</v>
       </c>
       <c r="U29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V29" t="s">
-        <v>181</v>
-      </c>
-      <c r="W29" t="s">
-        <v>239</v>
-      </c>
-      <c r="X29" t="s">
-        <v>276</v>
+        <v>183</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>295</v>
       </c>
       <c r="AB29">
         <v>2017</v>
@@ -2900,37 +2870,37 @@
         <v>65</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G30">
         <v>6</v>
       </c>
-      <c r="K30">
-        <v>7</v>
+      <c r="H30">
+        <v>6</v>
       </c>
       <c r="P30" t="s">
         <v>69</v>
       </c>
       <c r="Q30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R30" t="s">
         <v>78</v>
       </c>
       <c r="S30" t="s">
-        <v>94</v>
-      </c>
-      <c r="U30" t="s">
-        <v>156</v>
+        <v>98</v>
+      </c>
+      <c r="T30" t="s">
+        <v>144</v>
       </c>
       <c r="V30" t="s">
-        <v>180</v>
-      </c>
-      <c r="W30" t="s">
-        <v>238</v>
-      </c>
-      <c r="X30" t="s">
-        <v>275</v>
+        <v>183</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>295</v>
       </c>
       <c r="AB30">
         <v>2017</v>
@@ -2956,31 +2926,34 @@
         <v>6</v>
       </c>
       <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="K31">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
       </c>
       <c r="P31" t="s">
         <v>69</v>
       </c>
       <c r="Q31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R31" t="s">
         <v>78</v>
       </c>
       <c r="S31" t="s">
-        <v>97</v>
-      </c>
-      <c r="U31" t="s">
-        <v>157</v>
+        <v>98</v>
+      </c>
+      <c r="T31" t="s">
+        <v>144</v>
       </c>
       <c r="V31" t="s">
         <v>183</v>
       </c>
-      <c r="X31" t="s">
-        <v>277</v>
+      <c r="Y31" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>295</v>
       </c>
       <c r="AB31">
         <v>2017</v>
@@ -2991,49 +2964,58 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E32" t="s">
         <v>65</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P32" t="s">
         <v>69</v>
       </c>
       <c r="Q32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="T32" t="s">
+        <v>95</v>
       </c>
       <c r="U32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="V32" t="s">
-        <v>185</v>
-      </c>
-      <c r="W32" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="X32" t="s">
-        <v>278</v>
+        <v>276</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>275</v>
       </c>
       <c r="AB32">
         <v>2017</v>
@@ -3044,43 +3026,43 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
         <v>65</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
         <v>3</v>
       </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
       <c r="P33" t="s">
         <v>69</v>
       </c>
       <c r="Q33" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U33" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="V33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AB33">
         <v>2017</v>
@@ -3091,55 +3073,40 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
         <v>65</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>6</v>
-      </c>
-      <c r="I34">
-        <v>7</v>
-      </c>
-      <c r="N34">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P34" t="s">
         <v>69</v>
       </c>
       <c r="Q34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s">
-        <v>101</v>
-      </c>
-      <c r="U34" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="V34" t="s">
-        <v>187</v>
-      </c>
-      <c r="W34" t="s">
-        <v>241</v>
-      </c>
-      <c r="X34" t="s">
-        <v>279</v>
+        <v>183</v>
       </c>
       <c r="AB34">
         <v>2017</v>
@@ -3150,52 +3117,49 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
         <v>65</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H35">
-        <v>2</v>
-      </c>
-      <c r="I35">
-        <v>6</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P35" t="s">
         <v>69</v>
       </c>
       <c r="Q35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="U35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="V35" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="W35" t="s">
-        <v>242</v>
+        <v>238</v>
+      </c>
+      <c r="X35" t="s">
+        <v>275</v>
       </c>
       <c r="AB35">
         <v>2017</v>
@@ -3206,13 +3170,13 @@
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E36" t="s">
         <v>65</v>
@@ -3223,47 +3187,32 @@
       <c r="G36">
         <v>6</v>
       </c>
-      <c r="H36">
-        <v>7</v>
-      </c>
       <c r="K36">
         <v>7</v>
       </c>
-      <c r="M36">
-        <v>7</v>
-      </c>
       <c r="P36" t="s">
         <v>69</v>
       </c>
       <c r="Q36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S36" t="s">
-        <v>103</v>
-      </c>
-      <c r="T36" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="U36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="V36" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="W36" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>278</v>
+        <v>237</v>
+      </c>
+      <c r="X36" t="s">
+        <v>274</v>
       </c>
       <c r="AB36">
         <v>2017</v>
@@ -3274,58 +3223,46 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E37" t="s">
         <v>65</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G37">
-        <v>3</v>
-      </c>
-      <c r="H37">
         <v>6</v>
       </c>
       <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="M37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P37" t="s">
         <v>69</v>
       </c>
       <c r="Q37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S37" t="s">
-        <v>104</v>
-      </c>
-      <c r="T37" t="s">
-        <v>102</v>
-      </c>
-      <c r="U37" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="V37" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>242</v>
+        <v>179</v>
+      </c>
+      <c r="W37" t="s">
+        <v>237</v>
+      </c>
+      <c r="X37" t="s">
+        <v>274</v>
       </c>
       <c r="AB37">
         <v>2017</v>
@@ -3336,13 +3273,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
         <v>65</v>
@@ -3351,25 +3288,31 @@
         <v>6</v>
       </c>
       <c r="G38">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
       </c>
       <c r="P38" t="s">
         <v>69</v>
       </c>
       <c r="Q38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S38" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="U38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="V38" t="s">
-        <v>191</v>
+        <v>182</v>
+      </c>
+      <c r="X38" t="s">
+        <v>276</v>
       </c>
       <c r="AB38">
         <v>2017</v>
@@ -3392,28 +3335,37 @@
         <v>65</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
       </c>
       <c r="P39" t="s">
         <v>69</v>
       </c>
       <c r="Q39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R39" t="s">
         <v>79</v>
       </c>
       <c r="S39" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="U39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V39" t="s">
-        <v>190</v>
+        <v>184</v>
+      </c>
+      <c r="W39" t="s">
+        <v>239</v>
+      </c>
+      <c r="X39" t="s">
+        <v>277</v>
       </c>
       <c r="AB39">
         <v>2017</v>
@@ -3436,31 +3388,31 @@
         <v>65</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
       </c>
       <c r="P40" t="s">
         <v>69</v>
       </c>
       <c r="Q40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R40" t="s">
         <v>79</v>
       </c>
       <c r="S40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U40" t="s">
         <v>158</v>
       </c>
       <c r="V40" t="s">
-        <v>189</v>
-      </c>
-      <c r="W40" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="AB40">
         <v>2017</v>
@@ -3486,31 +3438,40 @@
         <v>4</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="N41">
+        <v>7</v>
       </c>
       <c r="P41" t="s">
         <v>69</v>
       </c>
       <c r="Q41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R41" t="s">
         <v>79</v>
       </c>
       <c r="S41" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="U41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V41" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="W41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="X41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AB41">
         <v>2017</v>
@@ -3521,46 +3482,52 @@
         <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
         <v>65</v>
       </c>
       <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42">
         <v>2</v>
-      </c>
-      <c r="G42">
-        <v>3</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
+      <c r="I42">
+        <v>6</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
       <c r="P42" t="s">
         <v>69</v>
       </c>
       <c r="Q42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="V42" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="W42" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AB42">
         <v>2017</v>
@@ -3571,46 +3538,64 @@
         <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E43" t="s">
         <v>65</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G43">
         <v>6</v>
       </c>
       <c r="H43">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="K43">
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <v>7</v>
       </c>
       <c r="P43" t="s">
         <v>69</v>
       </c>
       <c r="Q43" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S43" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="T43" t="s">
+        <v>99</v>
       </c>
       <c r="U43" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="V43" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="W43" t="s">
-        <v>246</v>
+        <v>242</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>277</v>
       </c>
       <c r="AB43">
         <v>2017</v>
@@ -3621,49 +3606,58 @@
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E44" t="s">
         <v>65</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G44">
         <v>3</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>5</v>
       </c>
       <c r="P44" t="s">
         <v>69</v>
       </c>
       <c r="Q44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S44" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="T44" t="s">
+        <v>102</v>
       </c>
       <c r="U44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="V44" t="s">
-        <v>195</v>
-      </c>
-      <c r="W44" t="s">
-        <v>247</v>
-      </c>
-      <c r="X44" t="s">
-        <v>281</v>
+        <v>189</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>241</v>
       </c>
       <c r="AB44">
         <v>2017</v>
@@ -3674,13 +3668,13 @@
         <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E45" t="s">
         <v>65</v>
@@ -3689,28 +3683,25 @@
         <v>6</v>
       </c>
       <c r="G45">
-        <v>6</v>
-      </c>
-      <c r="H45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P45" t="s">
         <v>69</v>
       </c>
       <c r="Q45" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S45" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="U45" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="V45" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AB45">
         <v>2017</v>
@@ -3721,13 +3712,13 @@
         <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
         <v>65</v>
@@ -3736,43 +3727,25 @@
         <v>3</v>
       </c>
       <c r="G46">
-        <v>4</v>
-      </c>
-      <c r="H46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P46" t="s">
         <v>69</v>
       </c>
       <c r="Q46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S46" t="s">
-        <v>111</v>
-      </c>
-      <c r="T46" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="U46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="V46" t="s">
-        <v>197</v>
-      </c>
-      <c r="W46" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="AB46">
         <v>2017</v>
@@ -3783,13 +3756,13 @@
         <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E47" t="s">
         <v>65</v>
@@ -3800,41 +3773,26 @@
       <c r="G47">
         <v>6</v>
       </c>
-      <c r="H47">
-        <v>6</v>
-      </c>
       <c r="P47" t="s">
         <v>69</v>
       </c>
       <c r="Q47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S47" t="s">
-        <v>112</v>
-      </c>
-      <c r="T47" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="U47" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="V47" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="W47" t="s">
-        <v>249</v>
-      </c>
-      <c r="X47" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="AB47">
         <v>2017</v>
@@ -3845,46 +3803,46 @@
         <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E48" t="s">
         <v>65</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="U48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="V48" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W48" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="X48" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AB48">
         <v>2017</v>
@@ -3907,31 +3865,34 @@
         <v>65</v>
       </c>
       <c r="F49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
       </c>
       <c r="P49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q49" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R49" t="s">
         <v>80</v>
       </c>
       <c r="S49" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="U49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="V49" t="s">
-        <v>199</v>
-      </c>
-      <c r="X49" t="s">
-        <v>252</v>
+        <v>192</v>
+      </c>
+      <c r="W49" t="s">
+        <v>244</v>
       </c>
       <c r="AB49">
         <v>2017</v>
@@ -3959,29 +3920,29 @@
       <c r="G50">
         <v>6</v>
       </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
       <c r="P50" t="s">
         <v>69</v>
       </c>
       <c r="Q50" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R50" t="s">
         <v>80</v>
       </c>
       <c r="S50" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="U50" t="s">
         <v>160</v>
       </c>
       <c r="V50" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="W50" t="s">
-        <v>250</v>
-      </c>
-      <c r="X50" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="AB50">
         <v>2017</v>
@@ -4004,34 +3965,37 @@
         <v>65</v>
       </c>
       <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
         <v>4</v>
       </c>
-      <c r="G51">
-        <v>4</v>
-      </c>
       <c r="P51" t="s">
         <v>69</v>
       </c>
       <c r="Q51" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R51" t="s">
         <v>80</v>
       </c>
       <c r="S51" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="V51" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W51" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="X51" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AB51">
         <v>2017</v>
@@ -4042,49 +4006,43 @@
         <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E52" t="s">
         <v>65</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P52" t="s">
         <v>69</v>
       </c>
       <c r="Q52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S52" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="U52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V52" t="s">
-        <v>201</v>
-      </c>
-      <c r="W52" t="s">
-        <v>251</v>
-      </c>
-      <c r="X52" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="AB52">
         <v>2017</v>
@@ -4095,49 +4053,58 @@
         <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E53" t="s">
         <v>65</v>
       </c>
       <c r="F53">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G53">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H53">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P53" t="s">
         <v>69</v>
       </c>
       <c r="Q53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S53" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="T53" t="s">
+        <v>114</v>
       </c>
       <c r="U53" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V53" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="W53" t="s">
-        <v>252</v>
-      </c>
-      <c r="X53" t="s">
-        <v>284</v>
+        <v>247</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>263</v>
       </c>
       <c r="AB53">
         <v>2017</v>
@@ -4148,13 +4115,13 @@
         <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E54" t="s">
         <v>65</v>
@@ -4166,34 +4133,40 @@
         <v>6</v>
       </c>
       <c r="H54">
-        <v>7</v>
-      </c>
-      <c r="M54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P54" t="s">
         <v>69</v>
       </c>
       <c r="Q54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S54" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="T54" t="s">
+        <v>113</v>
       </c>
       <c r="U54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V54" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="W54" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="X54" t="s">
-        <v>285</v>
+        <v>281</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>251</v>
       </c>
       <c r="AB54">
         <v>2017</v>
@@ -4204,49 +4177,46 @@
         <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E55" t="s">
         <v>65</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="H55">
-        <v>6</v>
-      </c>
-      <c r="M55">
-        <v>3</v>
-      </c>
       <c r="P55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q55" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S55" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="U55" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V55" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="W55" t="s">
-        <v>254</v>
+        <v>246</v>
+      </c>
+      <c r="X55" t="s">
+        <v>280</v>
       </c>
       <c r="AB55">
         <v>2017</v>
@@ -4257,13 +4227,13 @@
         <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
         <v>65</v>
@@ -4272,52 +4242,28 @@
         <v>6</v>
       </c>
       <c r="G56">
-        <v>7</v>
-      </c>
-      <c r="H56">
-        <v>6</v>
-      </c>
-      <c r="I56">
-        <v>3</v>
-      </c>
-      <c r="K56">
         <v>1</v>
       </c>
-      <c r="L56">
-        <v>7</v>
-      </c>
-      <c r="M56">
-        <v>3</v>
-      </c>
       <c r="P56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S56" t="s">
-        <v>119</v>
-      </c>
-      <c r="T56" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="U56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V56" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>285</v>
+        <v>198</v>
+      </c>
+      <c r="X56" t="s">
+        <v>251</v>
       </c>
       <c r="AB56">
         <v>2017</v>
@@ -4328,64 +4274,46 @@
         <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E57" t="s">
         <v>65</v>
       </c>
       <c r="F57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G57">
         <v>6</v>
       </c>
-      <c r="H57">
-        <v>7</v>
-      </c>
-      <c r="I57">
-        <v>6</v>
-      </c>
-      <c r="K57">
-        <v>7</v>
-      </c>
-      <c r="L57">
-        <v>3</v>
-      </c>
-      <c r="M57">
-        <v>7</v>
-      </c>
       <c r="P57" t="s">
         <v>69</v>
       </c>
       <c r="Q57" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S57" t="s">
-        <v>120</v>
-      </c>
-      <c r="T57" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="U57" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V57" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>301</v>
+        <v>199</v>
+      </c>
+      <c r="W57" t="s">
+        <v>249</v>
+      </c>
+      <c r="X57" t="s">
+        <v>263</v>
       </c>
       <c r="AB57">
         <v>2017</v>
@@ -4396,58 +4324,46 @@
         <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E58" t="s">
         <v>65</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G58">
-        <v>6</v>
-      </c>
-      <c r="H58">
-        <v>3</v>
-      </c>
-      <c r="I58">
-        <v>7</v>
-      </c>
-      <c r="K58">
-        <v>7</v>
-      </c>
-      <c r="N58">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P58" t="s">
         <v>69</v>
       </c>
       <c r="Q58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S58" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="U58" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V58" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="W58" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="X58" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AB58">
         <v>2017</v>
@@ -4470,46 +4386,37 @@
         <v>65</v>
       </c>
       <c r="F59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
         <v>4</v>
       </c>
-      <c r="H59">
-        <v>6</v>
-      </c>
-      <c r="I59">
-        <v>6</v>
-      </c>
-      <c r="K59">
-        <v>3</v>
-      </c>
-      <c r="N59">
-        <v>5</v>
-      </c>
       <c r="P59" t="s">
         <v>69</v>
       </c>
       <c r="Q59" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R59" t="s">
         <v>81</v>
       </c>
       <c r="S59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U59" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V59" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="W59" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="X59" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AB59">
         <v>2017</v>
@@ -4532,25 +4439,25 @@
         <v>65</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q60" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R60" t="s">
         <v>81</v>
       </c>
       <c r="S60" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U60" t="s">
         <v>162</v>
@@ -4591,28 +4498,34 @@
         <v>6</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="M61">
+        <v>7</v>
       </c>
       <c r="P61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q61" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R61" t="s">
         <v>81</v>
       </c>
       <c r="S61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U61" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V61" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="W61" t="s">
-        <v>254</v>
+        <v>252</v>
+      </c>
+      <c r="X61" t="s">
+        <v>284</v>
       </c>
       <c r="AB61">
         <v>2017</v>
@@ -4623,55 +4536,49 @@
         <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E62" t="s">
         <v>65</v>
       </c>
       <c r="F62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G62">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H62">
         <v>6</v>
       </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>7</v>
-      </c>
-      <c r="L62">
+      <c r="M62">
         <v>3</v>
       </c>
-      <c r="O62">
-        <v>8</v>
-      </c>
       <c r="P62" t="s">
         <v>69</v>
       </c>
       <c r="Q62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R62" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="U62" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="V62" t="s">
-        <v>207</v>
+        <v>203</v>
+      </c>
+      <c r="W62" t="s">
+        <v>253</v>
       </c>
       <c r="AB62">
         <v>2017</v>
@@ -4682,61 +4589,67 @@
         <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E63" t="s">
         <v>65</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G63">
         <v>7</v>
       </c>
       <c r="H63">
+        <v>6</v>
+      </c>
+      <c r="I63">
         <v>3</v>
       </c>
-      <c r="I63">
-        <v>6</v>
-      </c>
-      <c r="J63">
-        <v>6</v>
+      <c r="K63">
+        <v>1</v>
       </c>
       <c r="L63">
         <v>7</v>
       </c>
-      <c r="O63">
-        <v>6</v>
+      <c r="M63">
+        <v>3</v>
       </c>
       <c r="P63" t="s">
         <v>69</v>
       </c>
       <c r="Q63" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R63" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S63" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="T63" t="s">
+        <v>117</v>
       </c>
       <c r="U63" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V63" t="s">
-        <v>208</v>
-      </c>
-      <c r="W63" t="s">
-        <v>255</v>
-      </c>
-      <c r="X63" t="s">
-        <v>286</v>
+        <v>204</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>284</v>
       </c>
       <c r="AB63">
         <v>2017</v>
@@ -4747,49 +4660,64 @@
         <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E64" t="s">
         <v>65</v>
       </c>
       <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>6</v>
+      </c>
+      <c r="H64">
+        <v>7</v>
+      </c>
+      <c r="I64">
+        <v>6</v>
+      </c>
+      <c r="K64">
+        <v>7</v>
+      </c>
+      <c r="L64">
         <v>3</v>
       </c>
-      <c r="G64">
-        <v>6</v>
-      </c>
-      <c r="H64">
-        <v>6</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
+      <c r="M64">
+        <v>7</v>
       </c>
       <c r="P64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q64" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S64" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="T64" t="s">
+        <v>149</v>
       </c>
       <c r="U64" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="V64" t="s">
-        <v>209</v>
-      </c>
-      <c r="W64" t="s">
-        <v>256</v>
+        <v>205</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>300</v>
       </c>
       <c r="AB64">
         <v>2017</v>
@@ -4800,49 +4728,58 @@
         <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E65" t="s">
         <v>65</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="K65">
+        <v>7</v>
+      </c>
+      <c r="N65">
+        <v>7</v>
       </c>
       <c r="P65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q65" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R65" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S65" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="U65" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V65" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="W65" t="s">
-        <v>257</v>
+        <v>252</v>
+      </c>
+      <c r="X65" t="s">
+        <v>284</v>
       </c>
       <c r="AB65">
         <v>2017</v>
@@ -4853,13 +4790,13 @@
         <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E66" t="s">
         <v>65</v>
@@ -4868,7 +4805,7 @@
         <v>6</v>
       </c>
       <c r="G66">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H66">
         <v>6</v>
@@ -4876,35 +4813,35 @@
       <c r="I66">
         <v>6</v>
       </c>
-      <c r="L66">
-        <v>7</v>
-      </c>
-      <c r="M66">
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="N66">
         <v>5</v>
       </c>
       <c r="P66" t="s">
         <v>69</v>
       </c>
       <c r="Q66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R66" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S66" t="s">
-        <v>121</v>
-      </c>
-      <c r="T66" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="U66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="V66" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>213</v>
+        <v>201</v>
+      </c>
+      <c r="W66" t="s">
+        <v>251</v>
+      </c>
+      <c r="X66" t="s">
+        <v>283</v>
       </c>
       <c r="AB66">
         <v>2017</v>
@@ -4915,13 +4852,13 @@
         <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C67" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E67" t="s">
         <v>65</v>
@@ -4930,46 +4867,34 @@
         <v>3</v>
       </c>
       <c r="G67">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H67">
-        <v>7</v>
-      </c>
-      <c r="I67">
-        <v>4</v>
-      </c>
-      <c r="L67">
-        <v>3</v>
-      </c>
-      <c r="M67">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q67" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R67" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S67" t="s">
-        <v>125</v>
-      </c>
-      <c r="T67" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="U67" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V67" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>237</v>
+        <v>200</v>
+      </c>
+      <c r="W67" t="s">
+        <v>250</v>
+      </c>
+      <c r="X67" t="s">
+        <v>282</v>
       </c>
       <c r="AB67">
         <v>2017</v>
@@ -4980,13 +4905,13 @@
         <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C68" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E68" t="s">
         <v>65</v>
@@ -4995,34 +4920,31 @@
         <v>6</v>
       </c>
       <c r="G68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H68">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P68" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R68" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S68" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="U68" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="V68" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="W68" t="s">
-        <v>258</v>
-      </c>
-      <c r="X68" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="AB68">
         <v>2017</v>
@@ -5045,31 +4967,43 @@
         <v>65</v>
       </c>
       <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69">
+        <v>6</v>
+      </c>
+      <c r="H69">
+        <v>6</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>7</v>
+      </c>
+      <c r="L69">
         <v>3</v>
       </c>
-      <c r="G69">
-        <v>6</v>
-      </c>
-      <c r="H69">
-        <v>3</v>
+      <c r="O69">
+        <v>8</v>
       </c>
       <c r="P69" t="s">
         <v>69</v>
       </c>
       <c r="Q69" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R69" t="s">
         <v>78</v>
       </c>
       <c r="S69" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U69" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V69" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AB69">
         <v>2017</v>
@@ -5091,23 +5025,50 @@
       <c r="E70" t="s">
         <v>65</v>
       </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <v>7</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <v>6</v>
+      </c>
+      <c r="J70">
+        <v>6</v>
+      </c>
+      <c r="L70">
+        <v>7</v>
+      </c>
+      <c r="O70">
+        <v>6</v>
+      </c>
       <c r="P70" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q70" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R70" t="s">
         <v>78</v>
       </c>
       <c r="S70" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="U70" t="s">
         <v>164</v>
       </c>
       <c r="V70" t="s">
-        <v>213</v>
+        <v>207</v>
+      </c>
+      <c r="W70" t="s">
+        <v>254</v>
+      </c>
+      <c r="X70" t="s">
+        <v>285</v>
       </c>
       <c r="AB70">
         <v>2017</v>
@@ -5129,26 +5090,38 @@
       <c r="E71" t="s">
         <v>65</v>
       </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>6</v>
+      </c>
+      <c r="H71">
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
       <c r="P71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q71" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R71" t="s">
         <v>78</v>
       </c>
       <c r="S71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U71" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V71" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W71" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AB71">
         <v>2017</v>
@@ -5159,55 +5132,49 @@
         <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E72" t="s">
         <v>65</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H72">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>4</v>
-      </c>
-      <c r="J72">
-        <v>7</v>
-      </c>
-      <c r="O72">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P72" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R72" t="s">
         <v>78</v>
       </c>
       <c r="S72" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="U72" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="V72" t="s">
-        <v>214</v>
-      </c>
-      <c r="X72" t="s">
-        <v>288</v>
+        <v>209</v>
+      </c>
+      <c r="W72" t="s">
+        <v>256</v>
       </c>
       <c r="AB72">
         <v>2017</v>
@@ -5218,13 +5185,13 @@
         <v>28</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D73" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E73" t="s">
         <v>65</v>
@@ -5233,40 +5200,43 @@
         <v>6</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I73">
         <v>6</v>
       </c>
-      <c r="J73">
-        <v>6</v>
-      </c>
-      <c r="O73">
-        <v>6</v>
+      <c r="L73">
+        <v>7</v>
+      </c>
+      <c r="M73">
+        <v>5</v>
       </c>
       <c r="P73" t="s">
         <v>69</v>
       </c>
       <c r="Q73" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R73" t="s">
         <v>78</v>
       </c>
       <c r="S73" t="s">
-        <v>129</v>
+        <v>121</v>
+      </c>
+      <c r="T73" t="s">
+        <v>127</v>
       </c>
       <c r="U73" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="V73" t="s">
-        <v>215</v>
-      </c>
-      <c r="W73" t="s">
-        <v>259</v>
+        <v>206</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>212</v>
       </c>
       <c r="AB73">
         <v>2017</v>
@@ -5277,43 +5247,61 @@
         <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D74" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E74" t="s">
         <v>65</v>
       </c>
       <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>6</v>
+      </c>
+      <c r="H74">
+        <v>7</v>
+      </c>
+      <c r="I74">
         <v>4</v>
       </c>
-      <c r="G74">
-        <v>2</v>
-      </c>
-      <c r="H74">
+      <c r="L74">
         <v>3</v>
       </c>
+      <c r="M74">
+        <v>7</v>
+      </c>
       <c r="P74" t="s">
         <v>69</v>
       </c>
       <c r="Q74" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R74" t="s">
         <v>78</v>
       </c>
       <c r="S74" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="T74" t="s">
+        <v>150</v>
       </c>
       <c r="U74" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="V74" t="s">
-        <v>216</v>
+        <v>210</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>236</v>
       </c>
       <c r="AB74">
         <v>2017</v>
@@ -5324,13 +5312,13 @@
         <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E75" t="s">
         <v>65</v>
@@ -5339,7 +5327,7 @@
         <v>6</v>
       </c>
       <c r="G75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H75">
         <v>6</v>
@@ -5348,22 +5336,25 @@
         <v>69</v>
       </c>
       <c r="Q75" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R75" t="s">
         <v>78</v>
       </c>
       <c r="S75" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="U75" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="V75" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="W75" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+      <c r="X75" t="s">
+        <v>286</v>
       </c>
       <c r="AB75">
         <v>2017</v>
@@ -5374,67 +5365,43 @@
         <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E76" t="s">
         <v>65</v>
       </c>
       <c r="F76">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G76">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H76">
-        <v>7</v>
-      </c>
-      <c r="I76">
-        <v>2</v>
-      </c>
-      <c r="J76">
-        <v>6</v>
-      </c>
-      <c r="K76">
-        <v>6</v>
-      </c>
-      <c r="L76">
-        <v>9</v>
-      </c>
-      <c r="M76">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P76" t="s">
         <v>69</v>
       </c>
       <c r="Q76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R76" t="s">
         <v>78</v>
       </c>
       <c r="S76" t="s">
-        <v>132</v>
-      </c>
-      <c r="T76" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="U76" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="V76" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="AB76">
         <v>2017</v>
@@ -5445,67 +5412,34 @@
         <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D77" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E77" t="s">
         <v>65</v>
       </c>
-      <c r="F77">
-        <v>7</v>
-      </c>
-      <c r="G77">
-        <v>6</v>
-      </c>
-      <c r="H77">
-        <v>6</v>
-      </c>
-      <c r="I77">
-        <v>6</v>
-      </c>
-      <c r="J77">
-        <v>4</v>
-      </c>
-      <c r="K77">
-        <v>8</v>
-      </c>
-      <c r="L77">
-        <v>7</v>
-      </c>
-      <c r="M77">
-        <v>5</v>
-      </c>
       <c r="P77" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q77" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R77" t="s">
         <v>78</v>
       </c>
       <c r="S77" t="s">
-        <v>133</v>
-      </c>
-      <c r="T77" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="U77" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="V77" t="s">
-        <v>219</v>
-      </c>
-      <c r="W77" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="AB77">
         <v>2017</v>
@@ -5516,55 +5450,37 @@
         <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D78" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E78" t="s">
         <v>65</v>
       </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>7</v>
-      </c>
-      <c r="H78">
-        <v>3</v>
-      </c>
-      <c r="I78">
-        <v>6</v>
-      </c>
-      <c r="L78">
-        <v>7</v>
-      </c>
-      <c r="N78">
-        <v>6</v>
-      </c>
       <c r="P78" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q78" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R78" t="s">
         <v>78</v>
       </c>
       <c r="S78" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="U78" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="V78" t="s">
-        <v>214</v>
-      </c>
-      <c r="X78" t="s">
-        <v>288</v>
+        <v>209</v>
+      </c>
+      <c r="W78" t="s">
+        <v>256</v>
       </c>
       <c r="AB78">
         <v>2017</v>
@@ -5587,7 +5503,7 @@
         <v>65</v>
       </c>
       <c r="F79">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G79">
         <v>6</v>
@@ -5596,34 +5512,34 @@
         <v>6</v>
       </c>
       <c r="I79">
-        <v>7</v>
-      </c>
-      <c r="L79">
         <v>4</v>
       </c>
-      <c r="N79">
+      <c r="J79">
+        <v>7</v>
+      </c>
+      <c r="O79">
         <v>8</v>
       </c>
       <c r="P79" t="s">
         <v>69</v>
       </c>
       <c r="Q79" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R79" t="s">
         <v>78</v>
       </c>
       <c r="S79" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="U79" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V79" t="s">
-        <v>217</v>
-      </c>
-      <c r="W79" t="s">
-        <v>260</v>
+        <v>213</v>
+      </c>
+      <c r="X79" t="s">
+        <v>287</v>
       </c>
       <c r="AB79">
         <v>2017</v>
@@ -5649,34 +5565,40 @@
         <v>6</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H80">
         <v>4</v>
       </c>
-      <c r="K80">
-        <v>4</v>
+      <c r="I80">
+        <v>6</v>
+      </c>
+      <c r="J80">
+        <v>6</v>
+      </c>
+      <c r="O80">
+        <v>6</v>
       </c>
       <c r="P80" t="s">
         <v>69</v>
       </c>
       <c r="Q80" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R80" t="s">
         <v>78</v>
       </c>
       <c r="S80" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="U80" t="s">
         <v>166</v>
       </c>
       <c r="V80" t="s">
-        <v>220</v>
-      </c>
-      <c r="X80" t="s">
-        <v>289</v>
+        <v>214</v>
+      </c>
+      <c r="W80" t="s">
+        <v>258</v>
       </c>
       <c r="AB80">
         <v>2017</v>
@@ -5699,57 +5621,51 @@
         <v>65</v>
       </c>
       <c r="F81">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G81">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H81">
-        <v>6</v>
-      </c>
-      <c r="K81">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P81" t="s">
         <v>69</v>
       </c>
       <c r="Q81" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R81" t="s">
         <v>78</v>
       </c>
       <c r="S81" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="U81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V81" t="s">
         <v>215</v>
       </c>
-      <c r="W81" t="s">
-        <v>259</v>
-      </c>
       <c r="AB81">
         <v>2017</v>
       </c>
     </row>
     <row r="82" spans="1:28">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D82" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F82">
         <v>6</v>
@@ -5760,32 +5676,26 @@
       <c r="H82">
         <v>6</v>
       </c>
-      <c r="I82">
-        <v>7</v>
-      </c>
-      <c r="K82">
-        <v>3</v>
-      </c>
-      <c r="N82">
-        <v>7</v>
-      </c>
       <c r="P82" t="s">
         <v>69</v>
       </c>
       <c r="Q82" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R82" t="s">
         <v>78</v>
       </c>
       <c r="S82" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="U82" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="V82" t="s">
-        <v>175</v>
+        <v>216</v>
+      </c>
+      <c r="W82" t="s">
+        <v>259</v>
       </c>
       <c r="AB82">
         <v>2017</v>
@@ -5793,55 +5703,70 @@
     </row>
     <row r="83" spans="1:28">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D83" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
         <v>6</v>
       </c>
       <c r="K83">
-        <v>7</v>
-      </c>
-      <c r="N83">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="L83">
+        <v>9</v>
+      </c>
+      <c r="M83">
+        <v>7</v>
       </c>
       <c r="P83" t="s">
         <v>69</v>
       </c>
       <c r="Q83" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R83" t="s">
         <v>78</v>
       </c>
       <c r="S83" t="s">
-        <v>83</v>
+        <v>132</v>
+      </c>
+      <c r="T83" t="s">
+        <v>134</v>
       </c>
       <c r="U83" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="V83" t="s">
-        <v>169</v>
+        <v>217</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>288</v>
       </c>
       <c r="AB83">
         <v>2017</v>
@@ -5849,22 +5774,22 @@
     </row>
     <row r="84" spans="1:28">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D84" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F84">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G84">
         <v>6</v>
@@ -5872,29 +5797,47 @@
       <c r="H84">
         <v>6</v>
       </c>
+      <c r="I84">
+        <v>6</v>
+      </c>
+      <c r="J84">
+        <v>4</v>
+      </c>
+      <c r="K84">
+        <v>8</v>
+      </c>
+      <c r="L84">
+        <v>7</v>
+      </c>
+      <c r="M84">
+        <v>5</v>
+      </c>
       <c r="P84" t="s">
         <v>69</v>
       </c>
       <c r="Q84" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R84" t="s">
         <v>78</v>
       </c>
       <c r="S84" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="T84" t="s">
+        <v>151</v>
       </c>
       <c r="U84" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="V84" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="W84" t="s">
-        <v>262</v>
-      </c>
-      <c r="X84" t="s">
-        <v>290</v>
+        <v>260</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>299</v>
       </c>
       <c r="AB84">
         <v>2017</v>
@@ -5902,46 +5845,58 @@
     </row>
     <row r="85" spans="1:28">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D85" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H85">
         <v>3</v>
       </c>
+      <c r="I85">
+        <v>6</v>
+      </c>
+      <c r="L85">
+        <v>7</v>
+      </c>
+      <c r="N85">
+        <v>6</v>
+      </c>
       <c r="P85" t="s">
         <v>69</v>
       </c>
       <c r="Q85" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R85" t="s">
         <v>78</v>
       </c>
       <c r="S85" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="U85" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="V85" t="s">
-        <v>171</v>
+        <v>213</v>
+      </c>
+      <c r="X85" t="s">
+        <v>287</v>
       </c>
       <c r="AB85">
         <v>2017</v>
@@ -5949,67 +5904,58 @@
     </row>
     <row r="86" spans="1:28">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D86" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E86" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F86">
         <v>6</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H86">
+        <v>6</v>
+      </c>
+      <c r="I86">
+        <v>7</v>
+      </c>
+      <c r="L86">
         <v>4</v>
       </c>
-      <c r="I86">
-        <v>6</v>
-      </c>
-      <c r="J86">
-        <v>6</v>
-      </c>
-      <c r="O86">
-        <v>6</v>
+      <c r="N86">
+        <v>8</v>
       </c>
       <c r="P86" t="s">
         <v>69</v>
       </c>
       <c r="Q86" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R86" t="s">
         <v>78</v>
       </c>
       <c r="S86" t="s">
-        <v>92</v>
-      </c>
-      <c r="T86" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="U86" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="V86" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z86" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA86" t="s">
-        <v>291</v>
+        <v>216</v>
+      </c>
+      <c r="W86" t="s">
+        <v>259</v>
       </c>
       <c r="AB86">
         <v>2017</v>
@@ -6017,64 +5963,52 @@
     </row>
     <row r="87" spans="1:28">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D87" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F87">
+        <v>6</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
         <v>4</v>
       </c>
-      <c r="G87">
-        <v>6</v>
-      </c>
-      <c r="H87">
-        <v>6</v>
-      </c>
-      <c r="I87">
-        <v>3</v>
-      </c>
-      <c r="J87">
-        <v>7</v>
-      </c>
-      <c r="O87">
-        <v>8</v>
+      <c r="K87">
+        <v>4</v>
       </c>
       <c r="P87" t="s">
         <v>69</v>
       </c>
       <c r="Q87" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R87" t="s">
         <v>78</v>
       </c>
       <c r="S87" t="s">
-        <v>86</v>
-      </c>
-      <c r="T87" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="U87" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="V87" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="X87" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>171</v>
+        <v>288</v>
       </c>
       <c r="AB87">
         <v>2017</v>
@@ -6082,22 +6016,22 @@
     </row>
     <row r="88" spans="1:28">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D88" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F88">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G88">
         <v>6</v>
@@ -6105,29 +6039,29 @@
       <c r="H88">
         <v>6</v>
       </c>
+      <c r="K88">
+        <v>7</v>
+      </c>
       <c r="P88" t="s">
         <v>69</v>
       </c>
       <c r="Q88" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R88" t="s">
         <v>78</v>
       </c>
       <c r="S88" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="U88" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="V88" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="W88" t="s">
-        <v>262</v>
-      </c>
-      <c r="X88" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="AB88">
         <v>2017</v>
@@ -6150,31 +6084,40 @@
         <v>66</v>
       </c>
       <c r="F89">
+        <v>6</v>
+      </c>
+      <c r="G89">
+        <v>6</v>
+      </c>
+      <c r="H89">
+        <v>6</v>
+      </c>
+      <c r="I89">
+        <v>7</v>
+      </c>
+      <c r="K89">
         <v>3</v>
       </c>
-      <c r="G89">
-        <v>3</v>
-      </c>
-      <c r="H89">
-        <v>2</v>
+      <c r="N89">
+        <v>7</v>
       </c>
       <c r="P89" t="s">
         <v>69</v>
       </c>
       <c r="Q89" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R89" t="s">
         <v>78</v>
       </c>
       <c r="S89" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="U89" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V89" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AB89">
         <v>2017</v>
@@ -6197,37 +6140,40 @@
         <v>66</v>
       </c>
       <c r="F90">
+        <v>7</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>6</v>
+      </c>
+      <c r="K90">
+        <v>7</v>
+      </c>
+      <c r="N90">
         <v>4</v>
       </c>
-      <c r="G90">
-        <v>6</v>
-      </c>
-      <c r="L90">
-        <v>9</v>
-      </c>
       <c r="P90" t="s">
         <v>69</v>
       </c>
       <c r="Q90" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R90" t="s">
         <v>78</v>
       </c>
       <c r="S90" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="U90" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V90" t="s">
-        <v>222</v>
-      </c>
-      <c r="W90" t="s">
-        <v>263</v>
-      </c>
-      <c r="X90" t="s">
-        <v>291</v>
+        <v>168</v>
       </c>
       <c r="AB90">
         <v>2017</v>
@@ -6253,34 +6199,34 @@
         <v>6</v>
       </c>
       <c r="G91">
-        <v>7</v>
-      </c>
-      <c r="L91">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="H91">
+        <v>6</v>
       </c>
       <c r="P91" t="s">
         <v>69</v>
       </c>
       <c r="Q91" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R91" t="s">
         <v>78</v>
       </c>
       <c r="S91" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="U91" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V91" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="W91" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="X91" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AB91">
         <v>2017</v>
@@ -6291,55 +6237,43 @@
         <v>29</v>
       </c>
       <c r="B92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D92" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E92" t="s">
         <v>66</v>
       </c>
       <c r="F92">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G92">
         <v>3</v>
       </c>
       <c r="H92">
-        <v>7</v>
-      </c>
-      <c r="I92">
-        <v>6</v>
-      </c>
-      <c r="M92">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P92" t="s">
         <v>69</v>
       </c>
       <c r="Q92" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R92" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S92" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="U92" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="V92" t="s">
-        <v>180</v>
-      </c>
-      <c r="W92" t="s">
-        <v>238</v>
-      </c>
-      <c r="X92" t="s">
-        <v>275</v>
+        <v>170</v>
       </c>
       <c r="AB92">
         <v>2017</v>
@@ -6350,55 +6284,64 @@
         <v>29</v>
       </c>
       <c r="B93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D93" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E93" t="s">
         <v>66</v>
       </c>
       <c r="F93">
+        <v>6</v>
+      </c>
+      <c r="G93">
         <v>3</v>
       </c>
-      <c r="G93">
-        <v>6</v>
-      </c>
       <c r="H93">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>4</v>
-      </c>
-      <c r="M93">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="J93">
+        <v>6</v>
+      </c>
+      <c r="O93">
+        <v>6</v>
       </c>
       <c r="P93" t="s">
         <v>69</v>
       </c>
       <c r="Q93" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R93" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S93" t="s">
-        <v>99</v>
+        <v>92</v>
+      </c>
+      <c r="T93" t="s">
+        <v>136</v>
       </c>
       <c r="U93" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="V93" t="s">
-        <v>185</v>
-      </c>
-      <c r="W93" t="s">
-        <v>240</v>
-      </c>
-      <c r="X93" t="s">
-        <v>278</v>
+        <v>177</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>290</v>
       </c>
       <c r="AB93">
         <v>2017</v>
@@ -6409,49 +6352,61 @@
         <v>29</v>
       </c>
       <c r="B94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C94" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D94" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E94" t="s">
         <v>66</v>
       </c>
       <c r="F94">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G94">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H94">
-        <v>7</v>
-      </c>
-      <c r="L94">
-        <v>7</v>
-      </c>
-      <c r="M94">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <v>7</v>
+      </c>
+      <c r="O94">
+        <v>8</v>
       </c>
       <c r="P94" t="s">
         <v>69</v>
       </c>
       <c r="Q94" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R94" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S94" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+      <c r="T94" t="s">
+        <v>85</v>
       </c>
       <c r="U94" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="V94" t="s">
-        <v>182</v>
+        <v>171</v>
+      </c>
+      <c r="X94" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>170</v>
       </c>
       <c r="AB94">
         <v>2017</v>
@@ -6462,19 +6417,19 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C95" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D95" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E95" t="s">
         <v>66</v>
       </c>
       <c r="F95">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G95">
         <v>6</v>
@@ -6482,35 +6437,29 @@
       <c r="H95">
         <v>6</v>
       </c>
-      <c r="L95">
-        <v>5</v>
-      </c>
-      <c r="M95">
-        <v>5</v>
-      </c>
       <c r="P95" t="s">
         <v>69</v>
       </c>
       <c r="Q95" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R95" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S95" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="U95" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="V95" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="W95" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="X95" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="AB95">
         <v>2017</v>
@@ -6521,19 +6470,19 @@
         <v>29</v>
       </c>
       <c r="B96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C96" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D96" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E96" t="s">
         <v>66</v>
       </c>
       <c r="F96">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -6541,38 +6490,23 @@
       <c r="H96">
         <v>2</v>
       </c>
-      <c r="I96">
-        <v>6</v>
-      </c>
-      <c r="J96">
-        <v>3</v>
-      </c>
       <c r="P96" t="s">
         <v>69</v>
       </c>
       <c r="Q96" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R96" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S96" t="s">
-        <v>98</v>
-      </c>
-      <c r="T96" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="U96" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="V96" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y96" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA96" t="s">
-        <v>296</v>
+        <v>168</v>
       </c>
       <c r="AB96">
         <v>2017</v>
@@ -6583,64 +6517,49 @@
         <v>29</v>
       </c>
       <c r="B97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C97" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D97" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E97" t="s">
         <v>66</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G97">
         <v>6</v>
       </c>
-      <c r="H97">
-        <v>6</v>
-      </c>
-      <c r="I97">
-        <v>2</v>
-      </c>
-      <c r="J97">
-        <v>6</v>
+      <c r="L97">
+        <v>9</v>
       </c>
       <c r="P97" t="s">
         <v>69</v>
       </c>
       <c r="Q97" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R97" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S97" t="s">
-        <v>103</v>
-      </c>
-      <c r="T97" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="U97" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="V97" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="W97" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z97" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA97" t="s">
-        <v>278</v>
+        <v>262</v>
+      </c>
+      <c r="X97" t="s">
+        <v>290</v>
       </c>
       <c r="AB97">
         <v>2017</v>
@@ -6651,46 +6570,49 @@
         <v>29</v>
       </c>
       <c r="B98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C98" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D98" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E98" t="s">
         <v>66</v>
       </c>
       <c r="F98">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G98">
-        <v>6</v>
-      </c>
-      <c r="H98">
-        <v>6</v>
-      </c>
-      <c r="K98">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="L98">
+        <v>11</v>
       </c>
       <c r="P98" t="s">
         <v>69</v>
       </c>
       <c r="Q98" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R98" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S98" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="U98" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="V98" t="s">
-        <v>182</v>
+        <v>222</v>
+      </c>
+      <c r="W98" t="s">
+        <v>263</v>
+      </c>
+      <c r="X98" t="s">
+        <v>291</v>
       </c>
       <c r="AB98">
         <v>2017</v>
@@ -6719,28 +6641,37 @@
         <v>3</v>
       </c>
       <c r="H99">
-        <v>4</v>
-      </c>
-      <c r="K99">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="I99">
+        <v>6</v>
+      </c>
+      <c r="M99">
+        <v>7</v>
       </c>
       <c r="P99" t="s">
         <v>69</v>
       </c>
       <c r="Q99" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R99" t="s">
         <v>81</v>
       </c>
       <c r="S99" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="U99" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="V99" t="s">
-        <v>191</v>
+        <v>179</v>
+      </c>
+      <c r="W99" t="s">
+        <v>237</v>
+      </c>
+      <c r="X99" t="s">
+        <v>274</v>
       </c>
       <c r="AB99">
         <v>2017</v>
@@ -6768,26 +6699,35 @@
       <c r="G100">
         <v>3</v>
       </c>
-      <c r="K100">
-        <v>5</v>
+      <c r="H100">
+        <v>7</v>
+      </c>
+      <c r="I100">
+        <v>6</v>
+      </c>
+      <c r="M100">
+        <v>7</v>
       </c>
       <c r="P100" t="s">
         <v>69</v>
       </c>
       <c r="Q100" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R100" t="s">
         <v>81</v>
       </c>
       <c r="S100" t="s">
-        <v>98</v>
-      </c>
-      <c r="U100" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="V100" t="s">
-        <v>184</v>
+        <v>179</v>
+      </c>
+      <c r="W100" t="s">
+        <v>237</v>
+      </c>
+      <c r="X100" t="s">
+        <v>274</v>
       </c>
       <c r="AB100">
         <v>2017</v>
@@ -6810,37 +6750,43 @@
         <v>66</v>
       </c>
       <c r="F101">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G101">
         <v>6</v>
       </c>
-      <c r="K101">
-        <v>7</v>
+      <c r="H101">
+        <v>6</v>
+      </c>
+      <c r="I101">
+        <v>4</v>
+      </c>
+      <c r="M101">
+        <v>4</v>
       </c>
       <c r="P101" t="s">
         <v>69</v>
       </c>
       <c r="Q101" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R101" t="s">
         <v>81</v>
       </c>
       <c r="S101" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V101" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="W101" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="X101" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AB101">
         <v>2017</v>
@@ -6851,13 +6797,13 @@
         <v>29</v>
       </c>
       <c r="B102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C102" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D102" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E102" t="s">
         <v>66</v>
@@ -6869,31 +6815,31 @@
         <v>7</v>
       </c>
       <c r="H102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L102">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="M102">
+        <v>7</v>
       </c>
       <c r="P102" t="s">
         <v>69</v>
       </c>
       <c r="Q102" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="R102" t="s">
+        <v>81</v>
       </c>
       <c r="S102" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="U102" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V102" t="s">
-        <v>224</v>
-      </c>
-      <c r="W102" t="s">
-        <v>265</v>
-      </c>
-      <c r="X102" t="s">
-        <v>293</v>
+        <v>181</v>
       </c>
       <c r="AB102">
         <v>2017</v>
@@ -6904,46 +6850,46 @@
         <v>29</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C103" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D103" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E103" t="s">
         <v>66</v>
       </c>
       <c r="F103">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G103">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L103">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="M103">
+        <v>7</v>
       </c>
       <c r="P103" t="s">
         <v>69</v>
       </c>
       <c r="Q103" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="R103" t="s">
+        <v>81</v>
       </c>
       <c r="S103" t="s">
-        <v>118</v>
-      </c>
-      <c r="U103" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="V103" t="s">
-        <v>204</v>
-      </c>
-      <c r="W103" t="s">
-        <v>254</v>
+        <v>181</v>
       </c>
       <c r="AB103">
         <v>2017</v>
@@ -6954,25 +6900,31 @@
         <v>29</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C104" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D104" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E104" t="s">
         <v>66</v>
       </c>
       <c r="F104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G104">
         <v>6</v>
       </c>
       <c r="H104">
         <v>6</v>
+      </c>
+      <c r="L104">
+        <v>5</v>
+      </c>
+      <c r="M104">
+        <v>5</v>
       </c>
       <c r="P104" t="s">
         <v>69</v>
@@ -6980,20 +6932,23 @@
       <c r="Q104" t="s">
         <v>74</v>
       </c>
+      <c r="R104" t="s">
+        <v>81</v>
+      </c>
       <c r="S104" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="U104" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="V104" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="W104" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="X104" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="AB104">
         <v>2017</v>
@@ -7004,46 +6959,58 @@
         <v>29</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D105" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E105" t="s">
         <v>66</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G105">
         <v>3</v>
       </c>
       <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
+        <v>6</v>
+      </c>
+      <c r="J105">
         <v>3</v>
       </c>
       <c r="P105" t="s">
         <v>69</v>
       </c>
       <c r="Q105" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="R105" t="s">
+        <v>81</v>
       </c>
       <c r="S105" t="s">
-        <v>116</v>
+        <v>98</v>
+      </c>
+      <c r="T105" t="s">
+        <v>144</v>
       </c>
       <c r="U105" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="V105" t="s">
-        <v>202</v>
-      </c>
-      <c r="W105" t="s">
-        <v>252</v>
-      </c>
-      <c r="X105" t="s">
-        <v>284</v>
+        <v>183</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>295</v>
       </c>
       <c r="AB105">
         <v>2017</v>
@@ -7054,31 +7021,31 @@
         <v>29</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C106" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D106" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E106" t="s">
         <v>66</v>
       </c>
       <c r="F106">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G106">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H106">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>7</v>
-      </c>
-      <c r="K106">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="J106">
+        <v>3</v>
       </c>
       <c r="P106" t="s">
         <v>69</v>
@@ -7086,23 +7053,26 @@
       <c r="Q106" t="s">
         <v>75</v>
       </c>
+      <c r="R106" t="s">
+        <v>81</v>
+      </c>
       <c r="S106" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="T106" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="U106" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V106" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="Y106" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="AA106" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="AB106">
         <v>2017</v>
@@ -7113,13 +7083,13 @@
         <v>29</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C107" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D107" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E107" t="s">
         <v>66</v>
@@ -7128,16 +7098,16 @@
         <v>6</v>
       </c>
       <c r="G107">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>5</v>
-      </c>
-      <c r="K107">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="J107">
+        <v>3</v>
       </c>
       <c r="P107" t="s">
         <v>69</v>
@@ -7145,23 +7115,23 @@
       <c r="Q107" t="s">
         <v>75</v>
       </c>
+      <c r="R107" t="s">
+        <v>81</v>
+      </c>
       <c r="S107" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="T107" t="s">
-        <v>149</v>
-      </c>
-      <c r="U107" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="V107" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="Y107" t="s">
-        <v>298</v>
+        <v>229</v>
       </c>
       <c r="AA107" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AB107">
         <v>2017</v>
@@ -7172,37 +7142,55 @@
         <v>29</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C108" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D108" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E108" t="s">
         <v>66</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108">
         <v>2</v>
       </c>
+      <c r="I108">
+        <v>6</v>
+      </c>
+      <c r="J108">
+        <v>3</v>
+      </c>
       <c r="P108" t="s">
         <v>69</v>
       </c>
       <c r="Q108" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="R108" t="s">
+        <v>81</v>
       </c>
       <c r="S108" t="s">
-        <v>140</v>
-      </c>
-      <c r="U108" t="s">
-        <v>161</v>
+        <v>98</v>
+      </c>
+      <c r="T108" t="s">
+        <v>144</v>
       </c>
       <c r="V108" t="s">
-        <v>226</v>
+        <v>183</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>295</v>
       </c>
       <c r="AB108">
         <v>2017</v>
@@ -7213,43 +7201,64 @@
         <v>29</v>
       </c>
       <c r="B109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C109" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D109" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E109" t="s">
         <v>66</v>
       </c>
       <c r="F109">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G109">
         <v>6</v>
       </c>
+      <c r="H109">
+        <v>6</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>6</v>
+      </c>
       <c r="P109" t="s">
         <v>69</v>
       </c>
       <c r="Q109" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="R109" t="s">
+        <v>81</v>
       </c>
       <c r="S109" t="s">
-        <v>116</v>
+        <v>103</v>
+      </c>
+      <c r="T109" t="s">
+        <v>99</v>
       </c>
       <c r="U109" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="V109" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="W109" t="s">
-        <v>252</v>
-      </c>
-      <c r="X109" t="s">
-        <v>284</v>
+        <v>242</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>277</v>
       </c>
       <c r="AB109">
         <v>2017</v>
@@ -7260,43 +7269,46 @@
         <v>29</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C110" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D110" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E110" t="s">
         <v>66</v>
       </c>
       <c r="F110">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G110">
         <v>6</v>
       </c>
+      <c r="H110">
+        <v>6</v>
+      </c>
+      <c r="K110">
+        <v>7</v>
+      </c>
       <c r="P110" t="s">
         <v>69</v>
       </c>
       <c r="Q110" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="R110" t="s">
+        <v>81</v>
       </c>
       <c r="S110" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="U110" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V110" t="s">
-        <v>225</v>
-      </c>
-      <c r="W110" t="s">
-        <v>266</v>
-      </c>
-      <c r="X110" t="s">
-        <v>294</v>
+        <v>181</v>
       </c>
       <c r="AB110">
         <v>2017</v>
@@ -7307,40 +7319,43 @@
         <v>29</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C111" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D111" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E111" t="s">
         <v>66</v>
       </c>
       <c r="F111">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G111">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="H111">
+        <v>6</v>
+      </c>
+      <c r="K111">
+        <v>7</v>
       </c>
       <c r="P111" t="s">
         <v>69</v>
       </c>
       <c r="Q111" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="R111" t="s">
+        <v>81</v>
       </c>
       <c r="S111" t="s">
-        <v>118</v>
-      </c>
-      <c r="U111" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="V111" t="s">
-        <v>204</v>
-      </c>
-      <c r="W111" t="s">
-        <v>254</v>
+        <v>181</v>
       </c>
       <c r="AB111">
         <v>2017</v>
@@ -7351,13 +7366,13 @@
         <v>29</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C112" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D112" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E112" t="s">
         <v>66</v>
@@ -7366,31 +7381,31 @@
         <v>6</v>
       </c>
       <c r="G112">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H112">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="K112">
+        <v>4</v>
       </c>
       <c r="P112" t="s">
         <v>69</v>
       </c>
       <c r="Q112" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R112" t="s">
         <v>81</v>
       </c>
       <c r="S112" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="U112" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="V112" t="s">
-        <v>209</v>
-      </c>
-      <c r="W112" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="AB112">
         <v>2017</v>
@@ -7401,46 +7416,43 @@
         <v>29</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C113" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D113" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E113" t="s">
         <v>66</v>
       </c>
       <c r="F113">
+        <v>6</v>
+      </c>
+      <c r="G113">
         <v>3</v>
       </c>
-      <c r="G113">
-        <v>4</v>
-      </c>
-      <c r="H113">
-        <v>2</v>
+      <c r="K113">
+        <v>5</v>
       </c>
       <c r="P113" t="s">
         <v>69</v>
       </c>
       <c r="Q113" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="R113" t="s">
         <v>81</v>
       </c>
       <c r="S113" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="U113" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="V113" t="s">
-        <v>227</v>
-      </c>
-      <c r="W113" t="s">
-        <v>267</v>
+        <v>183</v>
       </c>
       <c r="AB113">
         <v>2017</v>
@@ -7451,13 +7463,13 @@
         <v>29</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D114" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E114" t="s">
         <v>66</v>
@@ -7466,28 +7478,25 @@
         <v>6</v>
       </c>
       <c r="G114">
-        <v>6</v>
-      </c>
-      <c r="H114">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="K114">
+        <v>5</v>
       </c>
       <c r="P114" t="s">
         <v>69</v>
       </c>
       <c r="Q114" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R114" t="s">
         <v>81</v>
       </c>
       <c r="S114" t="s">
-        <v>121</v>
-      </c>
-      <c r="U114" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="V114" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="AB114">
         <v>2017</v>
@@ -7498,46 +7507,49 @@
         <v>29</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C115" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D115" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E115" t="s">
         <v>66</v>
       </c>
       <c r="F115">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G115">
-        <v>4</v>
-      </c>
-      <c r="H115">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="K115">
+        <v>7</v>
       </c>
       <c r="P115" t="s">
         <v>69</v>
       </c>
       <c r="Q115" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R115" t="s">
         <v>81</v>
       </c>
       <c r="S115" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="U115" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="V115" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="W115" t="s">
-        <v>259</v>
+        <v>240</v>
+      </c>
+      <c r="X115" t="s">
+        <v>278</v>
       </c>
       <c r="AB115">
         <v>2017</v>
@@ -7548,19 +7560,19 @@
         <v>29</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D116" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E116" t="s">
         <v>66</v>
       </c>
       <c r="F116">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G116">
         <v>7</v>
@@ -7568,38 +7580,29 @@
       <c r="H116">
         <v>6</v>
       </c>
-      <c r="I116">
-        <v>4</v>
-      </c>
-      <c r="J116">
-        <v>6</v>
-      </c>
       <c r="L116">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P116" t="s">
         <v>69</v>
       </c>
       <c r="Q116" t="s">
-        <v>75</v>
-      </c>
-      <c r="R116" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="S116" t="s">
-        <v>121</v>
-      </c>
-      <c r="T116" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="U116" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="V116" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y116" t="s">
-        <v>213</v>
+        <v>223</v>
+      </c>
+      <c r="W116" t="s">
+        <v>264</v>
+      </c>
+      <c r="X116" t="s">
+        <v>292</v>
       </c>
       <c r="AB116">
         <v>2017</v>
@@ -7610,61 +7613,46 @@
         <v>29</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D117" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E117" t="s">
         <v>66</v>
       </c>
       <c r="F117">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G117">
         <v>6</v>
       </c>
       <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <v>6</v>
-      </c>
-      <c r="J117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P117" t="s">
         <v>69</v>
       </c>
       <c r="Q117" t="s">
-        <v>75</v>
-      </c>
-      <c r="R117" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="S117" t="s">
-        <v>129</v>
-      </c>
-      <c r="T117" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="U117" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="V117" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="W117" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y117" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="AB117">
         <v>2017</v>
@@ -7675,19 +7663,19 @@
         <v>29</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D118" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E118" t="s">
         <v>66</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G118">
         <v>6</v>
@@ -7699,25 +7687,22 @@
         <v>69</v>
       </c>
       <c r="Q118" t="s">
-        <v>76</v>
-      </c>
-      <c r="R118" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="S118" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="U118" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="V118" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="W118" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="X118" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AB118">
         <v>2017</v>
@@ -7728,49 +7713,46 @@
         <v>29</v>
       </c>
       <c r="B119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C119" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D119" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E119" t="s">
         <v>66</v>
       </c>
       <c r="F119">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P119" t="s">
         <v>69</v>
       </c>
       <c r="Q119" t="s">
-        <v>76</v>
-      </c>
-      <c r="R119" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="S119" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="U119" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="V119" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="W119" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="X119" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="AB119">
         <v>2017</v>
@@ -7781,40 +7763,55 @@
         <v>29</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C120" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D120" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E120" t="s">
         <v>66</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H120">
+        <v>7</v>
+      </c>
+      <c r="I120">
+        <v>7</v>
+      </c>
+      <c r="K120">
+        <v>9</v>
       </c>
       <c r="P120" t="s">
         <v>69</v>
       </c>
       <c r="Q120" t="s">
-        <v>77</v>
-      </c>
-      <c r="R120" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="S120" t="s">
-        <v>127</v>
+        <v>140</v>
+      </c>
+      <c r="T120" t="s">
+        <v>113</v>
       </c>
       <c r="U120" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="V120" t="s">
-        <v>213</v>
+        <v>225</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>251</v>
       </c>
       <c r="AB120">
         <v>2017</v>
@@ -7825,13 +7822,13 @@
         <v>29</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C121" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D121" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E121" t="s">
         <v>66</v>
@@ -7840,28 +7837,40 @@
         <v>6</v>
       </c>
       <c r="G121">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="H121">
+        <v>5</v>
+      </c>
+      <c r="I121">
+        <v>5</v>
+      </c>
+      <c r="K121">
+        <v>7</v>
       </c>
       <c r="P121" t="s">
         <v>69</v>
       </c>
       <c r="Q121" t="s">
-        <v>77</v>
-      </c>
-      <c r="R121" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="S121" t="s">
-        <v>141</v>
+        <v>120</v>
+      </c>
+      <c r="T121" t="s">
+        <v>149</v>
       </c>
       <c r="U121" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="V121" t="s">
-        <v>227</v>
-      </c>
-      <c r="W121" t="s">
-        <v>267</v>
+        <v>205</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>300</v>
       </c>
       <c r="AB121">
         <v>2017</v>
@@ -7869,55 +7878,40 @@
     </row>
     <row r="122" spans="1:28">
       <c r="A122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B122" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C122" t="s">
         <v>54</v>
       </c>
       <c r="D122" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E122" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F122">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G122">
-        <v>6</v>
-      </c>
-      <c r="H122">
-        <v>6</v>
-      </c>
-      <c r="I122">
-        <v>7</v>
-      </c>
-      <c r="K122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P122" t="s">
         <v>69</v>
       </c>
       <c r="Q122" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S122" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="U122" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="V122" t="s">
-        <v>221</v>
-      </c>
-      <c r="W122" t="s">
-        <v>262</v>
-      </c>
-      <c r="X122" t="s">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="AB122">
         <v>2017</v>
@@ -7925,52 +7919,46 @@
     </row>
     <row r="123" spans="1:28">
       <c r="A123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B123" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C123" t="s">
         <v>54</v>
       </c>
       <c r="D123" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E123" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F123">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G123">
-        <v>4</v>
-      </c>
-      <c r="H123">
-        <v>3</v>
-      </c>
-      <c r="I123">
-        <v>5</v>
-      </c>
-      <c r="K123">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P123" t="s">
         <v>69</v>
       </c>
       <c r="Q123" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S123" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="U123" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="V123" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="W123" t="s">
-        <v>269</v>
+        <v>251</v>
+      </c>
+      <c r="X123" t="s">
+        <v>283</v>
       </c>
       <c r="AB123">
         <v>2017</v>
@@ -7978,52 +7966,46 @@
     </row>
     <row r="124" spans="1:28">
       <c r="A124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B124" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C124" t="s">
         <v>54</v>
       </c>
       <c r="D124" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E124" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F124">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G124">
         <v>6</v>
       </c>
-      <c r="H124">
-        <v>7</v>
-      </c>
-      <c r="I124">
-        <v>1</v>
-      </c>
-      <c r="J124">
-        <v>2</v>
-      </c>
-      <c r="M124">
-        <v>7</v>
-      </c>
       <c r="P124" t="s">
         <v>69</v>
       </c>
       <c r="Q124" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S124" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="U124" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="V124" t="s">
-        <v>175</v>
+        <v>224</v>
+      </c>
+      <c r="W124" t="s">
+        <v>265</v>
+      </c>
+      <c r="X124" t="s">
+        <v>293</v>
       </c>
       <c r="AB124">
         <v>2017</v>
@@ -8031,52 +8013,43 @@
     </row>
     <row r="125" spans="1:28">
       <c r="A125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B125" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C125" t="s">
         <v>54</v>
       </c>
       <c r="D125" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E125" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F125">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G125">
-        <v>3</v>
-      </c>
-      <c r="H125">
-        <v>6</v>
-      </c>
-      <c r="I125">
-        <v>6</v>
-      </c>
-      <c r="J125">
-        <v>6</v>
-      </c>
-      <c r="M125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P125" t="s">
         <v>69</v>
       </c>
       <c r="Q125" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S125" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="U125" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="V125" t="s">
-        <v>182</v>
+        <v>203</v>
+      </c>
+      <c r="W125" t="s">
+        <v>253</v>
       </c>
       <c r="AB125">
         <v>2017</v>
@@ -8084,49 +8057,49 @@
     </row>
     <row r="126" spans="1:28">
       <c r="A126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D126" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E126" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F126">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G126">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P126" t="s">
         <v>69</v>
       </c>
       <c r="Q126" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="R126" t="s">
+        <v>81</v>
       </c>
       <c r="S126" t="s">
-        <v>92</v>
-      </c>
-      <c r="T126" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="U126" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="V126" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y126" t="s">
-        <v>177</v>
+        <v>208</v>
+      </c>
+      <c r="W126" t="s">
+        <v>255</v>
       </c>
       <c r="AB126">
         <v>2017</v>
@@ -8134,58 +8107,49 @@
     </row>
     <row r="127" spans="1:28">
       <c r="A127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D127" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E127" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F127">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G127">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H127">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P127" t="s">
         <v>69</v>
       </c>
       <c r="Q127" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="R127" t="s">
+        <v>81</v>
       </c>
       <c r="S127" t="s">
-        <v>144</v>
-      </c>
-      <c r="T127" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="U127" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="V127" t="s">
-        <v>230</v>
-      </c>
-      <c r="X127" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y127" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z127" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA127" t="s">
-        <v>275</v>
+        <v>226</v>
+      </c>
+      <c r="W127" t="s">
+        <v>266</v>
       </c>
       <c r="AB127">
         <v>2017</v>
@@ -8193,19 +8157,19 @@
     </row>
     <row r="128" spans="1:28">
       <c r="A128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D128" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E128" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F128">
         <v>6</v>
@@ -8216,32 +8180,23 @@
       <c r="H128">
         <v>6</v>
       </c>
-      <c r="I128">
-        <v>6</v>
-      </c>
-      <c r="K128">
-        <v>4</v>
-      </c>
       <c r="P128" t="s">
         <v>69</v>
       </c>
       <c r="Q128" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="R128" t="s">
+        <v>81</v>
       </c>
       <c r="S128" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="U128" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="V128" t="s">
-        <v>221</v>
-      </c>
-      <c r="W128" t="s">
-        <v>262</v>
-      </c>
-      <c r="X128" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="AB128">
         <v>2017</v>
@@ -8249,49 +8204,49 @@
     </row>
     <row r="129" spans="1:28">
       <c r="A129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D129" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E129" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F129">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G129">
         <v>4</v>
       </c>
       <c r="H129">
-        <v>4</v>
-      </c>
-      <c r="I129">
-        <v>4</v>
-      </c>
-      <c r="K129">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P129" t="s">
         <v>69</v>
       </c>
       <c r="Q129" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="R129" t="s">
+        <v>81</v>
       </c>
       <c r="S129" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="U129" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="V129" t="s">
-        <v>182</v>
+        <v>214</v>
+      </c>
+      <c r="W129" t="s">
+        <v>258</v>
       </c>
       <c r="AB129">
         <v>2017</v>
@@ -8299,22 +8254,22 @@
     </row>
     <row r="130" spans="1:28">
       <c r="A130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D130" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E130" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F130">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G130">
         <v>7</v>
@@ -8322,20 +8277,38 @@
       <c r="H130">
         <v>6</v>
       </c>
+      <c r="I130">
+        <v>4</v>
+      </c>
+      <c r="J130">
+        <v>6</v>
+      </c>
+      <c r="L130">
+        <v>7</v>
+      </c>
       <c r="P130" t="s">
         <v>69</v>
       </c>
       <c r="Q130" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="R130" t="s">
+        <v>81</v>
       </c>
       <c r="S130" t="s">
-        <v>89</v>
+        <v>121</v>
+      </c>
+      <c r="T130" t="s">
+        <v>127</v>
       </c>
       <c r="U130" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="V130" t="s">
-        <v>175</v>
+        <v>206</v>
+      </c>
+      <c r="Y130" t="s">
+        <v>212</v>
       </c>
       <c r="AB130">
         <v>2017</v>
@@ -8343,49 +8316,64 @@
     </row>
     <row r="131" spans="1:28">
       <c r="A131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D131" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E131" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F131">
+        <v>6</v>
+      </c>
+      <c r="G131">
+        <v>6</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>6</v>
+      </c>
+      <c r="J131">
+        <v>2</v>
+      </c>
+      <c r="L131">
         <v>4</v>
       </c>
-      <c r="G131">
-        <v>5</v>
-      </c>
-      <c r="H131">
-        <v>2</v>
-      </c>
       <c r="P131" t="s">
         <v>69</v>
       </c>
       <c r="Q131" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="R131" t="s">
+        <v>81</v>
       </c>
       <c r="S131" t="s">
-        <v>94</v>
+        <v>129</v>
+      </c>
+      <c r="T131" t="s">
+        <v>151</v>
       </c>
       <c r="U131" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="V131" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="W131" t="s">
-        <v>238</v>
-      </c>
-      <c r="X131" t="s">
-        <v>275</v>
+        <v>258</v>
+      </c>
+      <c r="Y131" t="s">
+        <v>299</v>
       </c>
       <c r="AB131">
         <v>2017</v>
@@ -8393,22 +8381,22 @@
     </row>
     <row r="132" spans="1:28">
       <c r="A132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B132" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C132" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D132" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E132" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G132">
         <v>6</v>
@@ -8416,35 +8404,29 @@
       <c r="H132">
         <v>6</v>
       </c>
-      <c r="I132">
-        <v>6</v>
-      </c>
-      <c r="M132">
-        <v>7</v>
-      </c>
-      <c r="N132">
-        <v>5</v>
-      </c>
       <c r="P132" t="s">
         <v>69</v>
       </c>
       <c r="Q132" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="R132" t="s">
+        <v>81</v>
       </c>
       <c r="S132" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="U132" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="V132" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="W132" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="X132" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AB132">
         <v>2017</v>
@@ -8452,58 +8434,52 @@
     </row>
     <row r="133" spans="1:28">
       <c r="A133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B133" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C133" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D133" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E133" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F133">
         <v>6</v>
       </c>
       <c r="G133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>7</v>
-      </c>
-      <c r="I133">
-        <v>7</v>
-      </c>
-      <c r="M133">
-        <v>9</v>
-      </c>
-      <c r="N133">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P133" t="s">
         <v>69</v>
       </c>
       <c r="Q133" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="R133" t="s">
+        <v>81</v>
       </c>
       <c r="S133" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="U133" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="V133" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="W133" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="X133" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AB133">
         <v>2017</v>
@@ -8511,46 +8487,43 @@
     </row>
     <row r="134" spans="1:28">
       <c r="A134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B134" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C134" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D134" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E134" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F134">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G134">
-        <v>6</v>
-      </c>
-      <c r="H134">
-        <v>6</v>
-      </c>
-      <c r="K134">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P134" t="s">
         <v>69</v>
       </c>
       <c r="Q134" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="R134" t="s">
+        <v>81</v>
       </c>
       <c r="S134" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="U134" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="V134" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="AB134">
         <v>2017</v>
@@ -8558,52 +8531,46 @@
     </row>
     <row r="135" spans="1:28">
       <c r="A135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B135" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C135" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D135" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E135" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F135">
         <v>6</v>
       </c>
       <c r="G135">
-        <v>3</v>
-      </c>
-      <c r="H135">
-        <v>3</v>
-      </c>
-      <c r="K135">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P135" t="s">
         <v>69</v>
       </c>
       <c r="Q135" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="R135" t="s">
+        <v>81</v>
       </c>
       <c r="S135" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="U135" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="V135" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="W135" t="s">
-        <v>270</v>
-      </c>
-      <c r="X135" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="AB135">
         <v>2017</v>
@@ -8614,13 +8581,13 @@
         <v>30</v>
       </c>
       <c r="B136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C136" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D136" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E136" t="s">
         <v>67</v>
@@ -8632,40 +8599,34 @@
         <v>6</v>
       </c>
       <c r="H136">
-        <v>7</v>
-      </c>
-      <c r="M136">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="I136">
+        <v>7</v>
+      </c>
+      <c r="K136">
+        <v>4</v>
       </c>
       <c r="P136" t="s">
         <v>69</v>
       </c>
       <c r="Q136" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S136" t="s">
-        <v>112</v>
-      </c>
-      <c r="T136" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="U136" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="V136" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="W136" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="X136" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y136" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA136" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="AB136">
         <v>2017</v>
@@ -8676,52 +8637,49 @@
         <v>30</v>
       </c>
       <c r="B137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C137" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D137" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E137" t="s">
         <v>67</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H137">
-        <v>6</v>
-      </c>
-      <c r="M137">
         <v>3</v>
       </c>
+      <c r="I137">
+        <v>5</v>
+      </c>
+      <c r="K137">
+        <v>7</v>
+      </c>
       <c r="P137" t="s">
         <v>69</v>
       </c>
       <c r="Q137" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S137" t="s">
-        <v>147</v>
-      </c>
-      <c r="T137" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="U137" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="V137" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="W137" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y137" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="AB137">
         <v>2017</v>
@@ -8732,29 +8690,32 @@
         <v>30</v>
       </c>
       <c r="B138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C138" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D138" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E138" t="s">
         <v>67</v>
       </c>
       <c r="F138">
+        <v>3</v>
+      </c>
+      <c r="G138">
+        <v>6</v>
+      </c>
+      <c r="H138">
+        <v>7</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
         <v>2</v>
       </c>
-      <c r="G138">
-        <v>6</v>
-      </c>
-      <c r="H138">
-        <v>7</v>
-      </c>
-      <c r="I138">
-        <v>6</v>
-      </c>
       <c r="M138">
         <v>7</v>
       </c>
@@ -8762,16 +8723,16 @@
         <v>69</v>
       </c>
       <c r="Q138" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S138" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="U138" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="V138" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="AB138">
         <v>2017</v>
@@ -8782,13 +8743,13 @@
         <v>30</v>
       </c>
       <c r="B139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C139" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D139" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E139" t="s">
         <v>67</v>
@@ -8797,13 +8758,16 @@
         <v>6</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H139">
         <v>6</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="J139">
+        <v>6</v>
       </c>
       <c r="M139">
         <v>5</v>
@@ -8812,22 +8776,16 @@
         <v>69</v>
       </c>
       <c r="Q139" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S139" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="U139" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="V139" t="s">
-        <v>212</v>
-      </c>
-      <c r="W139" t="s">
-        <v>258</v>
-      </c>
-      <c r="X139" t="s">
-        <v>287</v>
+        <v>181</v>
       </c>
       <c r="AB139">
         <v>2017</v>
@@ -8835,52 +8793,49 @@
     </row>
     <row r="140" spans="1:28">
       <c r="A140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C140" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D140" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E140" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F140">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G140">
         <v>3</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="I140">
+        <v>6</v>
+      </c>
+      <c r="J140">
+        <v>6</v>
+      </c>
+      <c r="M140">
+        <v>5</v>
       </c>
       <c r="P140" t="s">
         <v>69</v>
       </c>
       <c r="Q140" t="s">
-        <v>73</v>
-      </c>
-      <c r="R140" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="S140" t="s">
-        <v>138</v>
-      </c>
-      <c r="U140" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="V140" t="s">
-        <v>224</v>
-      </c>
-      <c r="W140" t="s">
-        <v>265</v>
-      </c>
-      <c r="X140" t="s">
-        <v>293</v>
+        <v>181</v>
       </c>
       <c r="AB140">
         <v>2017</v>
@@ -8888,52 +8843,49 @@
     </row>
     <row r="141" spans="1:28">
       <c r="A141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C141" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D141" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E141" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F141">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G141">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H141">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P141" t="s">
         <v>69</v>
       </c>
       <c r="Q141" t="s">
-        <v>73</v>
-      </c>
-      <c r="R141" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="S141" t="s">
-        <v>135</v>
+        <v>92</v>
+      </c>
+      <c r="T141" t="s">
+        <v>91</v>
       </c>
       <c r="U141" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V141" t="s">
-        <v>221</v>
-      </c>
-      <c r="W141" t="s">
-        <v>262</v>
-      </c>
-      <c r="X141" t="s">
-        <v>290</v>
+        <v>177</v>
+      </c>
+      <c r="Y141" t="s">
+        <v>176</v>
       </c>
       <c r="AB141">
         <v>2017</v>
@@ -8941,19 +8893,19 @@
     </row>
     <row r="142" spans="1:28">
       <c r="A142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C142" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D142" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E142" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F142">
         <v>6</v>
@@ -8968,19 +8920,31 @@
         <v>69</v>
       </c>
       <c r="Q142" t="s">
-        <v>74</v>
-      </c>
-      <c r="R142" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="S142" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="T142" t="s">
+        <v>94</v>
       </c>
       <c r="U142" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V142" t="s">
-        <v>231</v>
+        <v>229</v>
+      </c>
+      <c r="X142" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y142" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z142" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA142" t="s">
+        <v>274</v>
       </c>
       <c r="AB142">
         <v>2017</v>
@@ -8988,46 +8952,58 @@
     </row>
     <row r="143" spans="1:28">
       <c r="A143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C143" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D143" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E143" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F143">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P143" t="s">
         <v>69</v>
       </c>
       <c r="Q143" t="s">
-        <v>74</v>
-      </c>
-      <c r="R143" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="S143" t="s">
-        <v>89</v>
+        <v>144</v>
+      </c>
+      <c r="T143" t="s">
+        <v>94</v>
       </c>
       <c r="U143" t="s">
         <v>155</v>
       </c>
       <c r="V143" t="s">
-        <v>175</v>
+        <v>229</v>
+      </c>
+      <c r="X143" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z143" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA143" t="s">
+        <v>274</v>
       </c>
       <c r="AB143">
         <v>2017</v>
@@ -9035,34 +9011,28 @@
     </row>
     <row r="144" spans="1:28">
       <c r="A144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C144" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D144" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E144" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F144">
         <v>6</v>
       </c>
       <c r="G144">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H144">
-        <v>7</v>
-      </c>
-      <c r="I144">
-        <v>6</v>
-      </c>
-      <c r="M144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P144" t="s">
         <v>69</v>
@@ -9070,32 +9040,26 @@
       <c r="Q144" t="s">
         <v>75</v>
       </c>
-      <c r="R144" t="s">
-        <v>80</v>
-      </c>
       <c r="S144" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="T144" t="s">
-        <v>112</v>
-      </c>
-      <c r="U144" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="V144" t="s">
-        <v>194</v>
-      </c>
-      <c r="W144" t="s">
-        <v>246</v>
+        <v>229</v>
+      </c>
+      <c r="X144" t="s">
+        <v>295</v>
       </c>
       <c r="Y144" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="Z144" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="AA144" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AB144">
         <v>2017</v>
@@ -9103,34 +9067,28 @@
     </row>
     <row r="145" spans="1:28">
       <c r="A145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C145" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D145" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E145" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G145">
         <v>6</v>
       </c>
       <c r="H145">
         <v>6</v>
-      </c>
-      <c r="I145">
-        <v>4</v>
-      </c>
-      <c r="M145">
-        <v>2</v>
       </c>
       <c r="P145" t="s">
         <v>69</v>
@@ -9138,29 +9096,26 @@
       <c r="Q145" t="s">
         <v>75</v>
       </c>
-      <c r="R145" t="s">
-        <v>80</v>
-      </c>
       <c r="S145" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="T145" t="s">
-        <v>136</v>
-      </c>
-      <c r="U145" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="V145" t="s">
-        <v>178</v>
+        <v>229</v>
+      </c>
+      <c r="X145" t="s">
+        <v>295</v>
       </c>
       <c r="Y145" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="Z145" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="AA145" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="AB145">
         <v>2017</v>
@@ -9168,31 +9123,34 @@
     </row>
     <row r="146" spans="1:28">
       <c r="A146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B146" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C146" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D146" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E146" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F146">
         <v>6</v>
       </c>
       <c r="G146">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="I146">
+        <v>6</v>
       </c>
       <c r="K146">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P146" t="s">
         <v>69</v>
@@ -9200,17 +9158,20 @@
       <c r="Q146" t="s">
         <v>76</v>
       </c>
-      <c r="R146" t="s">
-        <v>80</v>
-      </c>
       <c r="S146" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="U146" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="V146" t="s">
-        <v>231</v>
+        <v>220</v>
+      </c>
+      <c r="W146" t="s">
+        <v>261</v>
+      </c>
+      <c r="X146" t="s">
+        <v>289</v>
       </c>
       <c r="AB146">
         <v>2017</v>
@@ -9218,28 +9179,31 @@
     </row>
     <row r="147" spans="1:28">
       <c r="A147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B147" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C147" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D147" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E147" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F147">
         <v>7</v>
       </c>
       <c r="G147">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H147">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="I147">
+        <v>4</v>
       </c>
       <c r="K147">
         <v>7</v>
@@ -9250,23 +9214,14 @@
       <c r="Q147" t="s">
         <v>76</v>
       </c>
-      <c r="R147" t="s">
-        <v>80</v>
-      </c>
       <c r="S147" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="U147" t="s">
         <v>155</v>
       </c>
       <c r="V147" t="s">
-        <v>221</v>
-      </c>
-      <c r="W147" t="s">
-        <v>262</v>
-      </c>
-      <c r="X147" t="s">
-        <v>290</v>
+        <v>181</v>
       </c>
       <c r="AB147">
         <v>2017</v>
@@ -9274,52 +9229,46 @@
     </row>
     <row r="148" spans="1:28">
       <c r="A148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C148" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D148" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E148" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F148">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G148">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H148">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="I148">
+        <v>4</v>
+      </c>
+      <c r="K148">
+        <v>7</v>
       </c>
       <c r="P148" t="s">
         <v>69</v>
       </c>
       <c r="Q148" t="s">
-        <v>77</v>
-      </c>
-      <c r="R148" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S148" t="s">
-        <v>138</v>
-      </c>
-      <c r="U148" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="V148" t="s">
-        <v>224</v>
-      </c>
-      <c r="W148" t="s">
-        <v>265</v>
-      </c>
-      <c r="X148" t="s">
-        <v>293</v>
+        <v>181</v>
       </c>
       <c r="AB148">
         <v>2017</v>
@@ -9327,28 +9276,28 @@
     </row>
     <row r="149" spans="1:28">
       <c r="A149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C149" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D149" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E149" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F149">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P149" t="s">
         <v>69</v>
@@ -9356,19 +9305,1094 @@
       <c r="Q149" t="s">
         <v>77</v>
       </c>
-      <c r="R149" t="s">
-        <v>80</v>
-      </c>
       <c r="S149" t="s">
         <v>89</v>
       </c>
       <c r="U149" t="s">
+        <v>154</v>
+      </c>
+      <c r="V149" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB149">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28">
+      <c r="A150" t="s">
+        <v>30</v>
+      </c>
+      <c r="B150" t="s">
+        <v>44</v>
+      </c>
+      <c r="C150" t="s">
+        <v>54</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" t="s">
+        <v>67</v>
+      </c>
+      <c r="F150">
+        <v>4</v>
+      </c>
+      <c r="G150">
+        <v>5</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="P150" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>77</v>
+      </c>
+      <c r="S150" t="s">
+        <v>94</v>
+      </c>
+      <c r="U150" t="s">
         <v>155</v>
       </c>
-      <c r="V149" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB149">
+      <c r="V150" t="s">
+        <v>179</v>
+      </c>
+      <c r="W150" t="s">
+        <v>237</v>
+      </c>
+      <c r="X150" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB150">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28">
+      <c r="A151" t="s">
+        <v>30</v>
+      </c>
+      <c r="B151" t="s">
+        <v>44</v>
+      </c>
+      <c r="C151" t="s">
+        <v>54</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" t="s">
+        <v>67</v>
+      </c>
+      <c r="F151">
+        <v>4</v>
+      </c>
+      <c r="G151">
+        <v>5</v>
+      </c>
+      <c r="H151">
+        <v>2</v>
+      </c>
+      <c r="P151" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>77</v>
+      </c>
+      <c r="S151" t="s">
+        <v>94</v>
+      </c>
+      <c r="V151" t="s">
+        <v>179</v>
+      </c>
+      <c r="W151" t="s">
+        <v>237</v>
+      </c>
+      <c r="X151" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB151">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28">
+      <c r="A152" t="s">
+        <v>30</v>
+      </c>
+      <c r="B152" t="s">
+        <v>45</v>
+      </c>
+      <c r="C152" t="s">
+        <v>46</v>
+      </c>
+      <c r="D152" t="s">
+        <v>63</v>
+      </c>
+      <c r="E152" t="s">
+        <v>67</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>6</v>
+      </c>
+      <c r="H152">
+        <v>6</v>
+      </c>
+      <c r="I152">
+        <v>6</v>
+      </c>
+      <c r="M152">
+        <v>7</v>
+      </c>
+      <c r="N152">
+        <v>5</v>
+      </c>
+      <c r="P152" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>73</v>
+      </c>
+      <c r="S152" t="s">
+        <v>138</v>
+      </c>
+      <c r="U152" t="s">
+        <v>160</v>
+      </c>
+      <c r="V152" t="s">
+        <v>223</v>
+      </c>
+      <c r="W152" t="s">
+        <v>264</v>
+      </c>
+      <c r="X152" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB152">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28">
+      <c r="A153" t="s">
+        <v>30</v>
+      </c>
+      <c r="B153" t="s">
+        <v>45</v>
+      </c>
+      <c r="C153" t="s">
+        <v>46</v>
+      </c>
+      <c r="D153" t="s">
+        <v>63</v>
+      </c>
+      <c r="E153" t="s">
+        <v>67</v>
+      </c>
+      <c r="F153">
+        <v>6</v>
+      </c>
+      <c r="G153">
+        <v>3</v>
+      </c>
+      <c r="H153">
+        <v>7</v>
+      </c>
+      <c r="I153">
+        <v>7</v>
+      </c>
+      <c r="M153">
+        <v>9</v>
+      </c>
+      <c r="N153">
+        <v>7</v>
+      </c>
+      <c r="P153" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>73</v>
+      </c>
+      <c r="S153" t="s">
+        <v>126</v>
+      </c>
+      <c r="U153" t="s">
+        <v>163</v>
+      </c>
+      <c r="V153" t="s">
+        <v>211</v>
+      </c>
+      <c r="W153" t="s">
+        <v>257</v>
+      </c>
+      <c r="X153" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB153">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28">
+      <c r="A154" t="s">
+        <v>30</v>
+      </c>
+      <c r="B154" t="s">
+        <v>45</v>
+      </c>
+      <c r="C154" t="s">
+        <v>46</v>
+      </c>
+      <c r="D154" t="s">
+        <v>63</v>
+      </c>
+      <c r="E154" t="s">
+        <v>67</v>
+      </c>
+      <c r="F154">
+        <v>7</v>
+      </c>
+      <c r="G154">
+        <v>6</v>
+      </c>
+      <c r="H154">
+        <v>6</v>
+      </c>
+      <c r="K154">
+        <v>7</v>
+      </c>
+      <c r="P154" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>74</v>
+      </c>
+      <c r="S154" t="s">
+        <v>145</v>
+      </c>
+      <c r="U154" t="s">
+        <v>160</v>
+      </c>
+      <c r="V154" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB154">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28">
+      <c r="A155" t="s">
+        <v>30</v>
+      </c>
+      <c r="B155" t="s">
+        <v>45</v>
+      </c>
+      <c r="C155" t="s">
+        <v>46</v>
+      </c>
+      <c r="D155" t="s">
+        <v>63</v>
+      </c>
+      <c r="E155" t="s">
+        <v>67</v>
+      </c>
+      <c r="F155">
+        <v>6</v>
+      </c>
+      <c r="G155">
+        <v>3</v>
+      </c>
+      <c r="H155">
+        <v>3</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="P155" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>74</v>
+      </c>
+      <c r="S155" t="s">
+        <v>146</v>
+      </c>
+      <c r="U155" t="s">
+        <v>163</v>
+      </c>
+      <c r="V155" t="s">
+        <v>231</v>
+      </c>
+      <c r="W155" t="s">
+        <v>269</v>
+      </c>
+      <c r="X155" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB155">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28">
+      <c r="A156" t="s">
+        <v>30</v>
+      </c>
+      <c r="B156" t="s">
+        <v>45</v>
+      </c>
+      <c r="C156" t="s">
+        <v>46</v>
+      </c>
+      <c r="D156" t="s">
+        <v>63</v>
+      </c>
+      <c r="E156" t="s">
+        <v>67</v>
+      </c>
+      <c r="F156">
+        <v>6</v>
+      </c>
+      <c r="G156">
+        <v>6</v>
+      </c>
+      <c r="H156">
+        <v>7</v>
+      </c>
+      <c r="M156">
+        <v>7</v>
+      </c>
+      <c r="P156" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>75</v>
+      </c>
+      <c r="S156" t="s">
+        <v>112</v>
+      </c>
+      <c r="T156" t="s">
+        <v>113</v>
+      </c>
+      <c r="U156" t="s">
+        <v>160</v>
+      </c>
+      <c r="V156" t="s">
+        <v>197</v>
+      </c>
+      <c r="W156" t="s">
+        <v>248</v>
+      </c>
+      <c r="X156" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y156" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA156" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB156">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28">
+      <c r="A157" t="s">
+        <v>30</v>
+      </c>
+      <c r="B157" t="s">
+        <v>45</v>
+      </c>
+      <c r="C157" t="s">
+        <v>46</v>
+      </c>
+      <c r="D157" t="s">
+        <v>63</v>
+      </c>
+      <c r="E157" t="s">
+        <v>67</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>2</v>
+      </c>
+      <c r="H157">
+        <v>6</v>
+      </c>
+      <c r="M157">
+        <v>3</v>
+      </c>
+      <c r="P157" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>75</v>
+      </c>
+      <c r="S157" t="s">
+        <v>147</v>
+      </c>
+      <c r="T157" t="s">
+        <v>127</v>
+      </c>
+      <c r="U157" t="s">
+        <v>163</v>
+      </c>
+      <c r="V157" t="s">
+        <v>232</v>
+      </c>
+      <c r="W157" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y157" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB157">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28">
+      <c r="A158" t="s">
+        <v>30</v>
+      </c>
+      <c r="B158" t="s">
+        <v>45</v>
+      </c>
+      <c r="C158" t="s">
+        <v>46</v>
+      </c>
+      <c r="D158" t="s">
+        <v>63</v>
+      </c>
+      <c r="E158" t="s">
+        <v>67</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="G158">
+        <v>6</v>
+      </c>
+      <c r="H158">
+        <v>7</v>
+      </c>
+      <c r="I158">
+        <v>6</v>
+      </c>
+      <c r="M158">
+        <v>7</v>
+      </c>
+      <c r="P158" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>76</v>
+      </c>
+      <c r="S158" t="s">
+        <v>145</v>
+      </c>
+      <c r="U158" t="s">
+        <v>160</v>
+      </c>
+      <c r="V158" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB158">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28">
+      <c r="A159" t="s">
+        <v>30</v>
+      </c>
+      <c r="B159" t="s">
+        <v>45</v>
+      </c>
+      <c r="C159" t="s">
+        <v>46</v>
+      </c>
+      <c r="D159" t="s">
+        <v>63</v>
+      </c>
+      <c r="E159" t="s">
+        <v>67</v>
+      </c>
+      <c r="F159">
+        <v>6</v>
+      </c>
+      <c r="G159">
+        <v>2</v>
+      </c>
+      <c r="H159">
+        <v>6</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>5</v>
+      </c>
+      <c r="P159" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>76</v>
+      </c>
+      <c r="S159" t="s">
+        <v>126</v>
+      </c>
+      <c r="U159" t="s">
+        <v>163</v>
+      </c>
+      <c r="V159" t="s">
+        <v>211</v>
+      </c>
+      <c r="W159" t="s">
+        <v>257</v>
+      </c>
+      <c r="X159" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB159">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28">
+      <c r="A160" t="s">
+        <v>31</v>
+      </c>
+      <c r="B160" t="s">
+        <v>45</v>
+      </c>
+      <c r="C160" t="s">
+        <v>47</v>
+      </c>
+      <c r="D160" t="s">
+        <v>61</v>
+      </c>
+      <c r="E160" t="s">
+        <v>68</v>
+      </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+      <c r="G160">
+        <v>3</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="P160" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>73</v>
+      </c>
+      <c r="R160" t="s">
+        <v>80</v>
+      </c>
+      <c r="S160" t="s">
+        <v>138</v>
+      </c>
+      <c r="U160" t="s">
+        <v>160</v>
+      </c>
+      <c r="V160" t="s">
+        <v>223</v>
+      </c>
+      <c r="W160" t="s">
+        <v>264</v>
+      </c>
+      <c r="X160" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB160">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28">
+      <c r="A161" t="s">
+        <v>31</v>
+      </c>
+      <c r="B161" t="s">
+        <v>45</v>
+      </c>
+      <c r="C161" t="s">
+        <v>47</v>
+      </c>
+      <c r="D161" t="s">
+        <v>61</v>
+      </c>
+      <c r="E161" t="s">
+        <v>68</v>
+      </c>
+      <c r="F161">
+        <v>7</v>
+      </c>
+      <c r="G161">
+        <v>6</v>
+      </c>
+      <c r="H161">
+        <v>6</v>
+      </c>
+      <c r="P161" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>73</v>
+      </c>
+      <c r="R161" t="s">
+        <v>80</v>
+      </c>
+      <c r="S161" t="s">
+        <v>135</v>
+      </c>
+      <c r="U161" t="s">
+        <v>154</v>
+      </c>
+      <c r="V161" t="s">
+        <v>220</v>
+      </c>
+      <c r="W161" t="s">
+        <v>261</v>
+      </c>
+      <c r="X161" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB161">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28">
+      <c r="A162" t="s">
+        <v>31</v>
+      </c>
+      <c r="B162" t="s">
+        <v>45</v>
+      </c>
+      <c r="C162" t="s">
+        <v>47</v>
+      </c>
+      <c r="D162" t="s">
+        <v>61</v>
+      </c>
+      <c r="E162" t="s">
+        <v>68</v>
+      </c>
+      <c r="F162">
+        <v>6</v>
+      </c>
+      <c r="G162">
+        <v>6</v>
+      </c>
+      <c r="H162">
+        <v>6</v>
+      </c>
+      <c r="P162" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>74</v>
+      </c>
+      <c r="R162" t="s">
+        <v>80</v>
+      </c>
+      <c r="S162" t="s">
+        <v>145</v>
+      </c>
+      <c r="U162" t="s">
+        <v>160</v>
+      </c>
+      <c r="V162" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB162">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28">
+      <c r="A163" t="s">
+        <v>31</v>
+      </c>
+      <c r="B163" t="s">
+        <v>45</v>
+      </c>
+      <c r="C163" t="s">
+        <v>47</v>
+      </c>
+      <c r="D163" t="s">
+        <v>61</v>
+      </c>
+      <c r="E163" t="s">
+        <v>68</v>
+      </c>
+      <c r="F163">
+        <v>3</v>
+      </c>
+      <c r="G163">
+        <v>2</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="P163" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>74</v>
+      </c>
+      <c r="R163" t="s">
+        <v>80</v>
+      </c>
+      <c r="S163" t="s">
+        <v>89</v>
+      </c>
+      <c r="U163" t="s">
+        <v>154</v>
+      </c>
+      <c r="V163" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB163">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28">
+      <c r="A164" t="s">
+        <v>31</v>
+      </c>
+      <c r="B164" t="s">
+        <v>45</v>
+      </c>
+      <c r="C164" t="s">
+        <v>47</v>
+      </c>
+      <c r="D164" t="s">
+        <v>61</v>
+      </c>
+      <c r="E164" t="s">
+        <v>68</v>
+      </c>
+      <c r="F164">
+        <v>6</v>
+      </c>
+      <c r="G164">
+        <v>3</v>
+      </c>
+      <c r="H164">
+        <v>7</v>
+      </c>
+      <c r="I164">
+        <v>6</v>
+      </c>
+      <c r="M164">
+        <v>7</v>
+      </c>
+      <c r="P164" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>75</v>
+      </c>
+      <c r="R164" t="s">
+        <v>80</v>
+      </c>
+      <c r="S164" t="s">
+        <v>108</v>
+      </c>
+      <c r="T164" t="s">
+        <v>112</v>
+      </c>
+      <c r="U164" t="s">
+        <v>160</v>
+      </c>
+      <c r="V164" t="s">
+        <v>193</v>
+      </c>
+      <c r="W164" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y164" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z164" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA164" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB164">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28">
+      <c r="A165" t="s">
+        <v>31</v>
+      </c>
+      <c r="B165" t="s">
+        <v>45</v>
+      </c>
+      <c r="C165" t="s">
+        <v>47</v>
+      </c>
+      <c r="D165" t="s">
+        <v>61</v>
+      </c>
+      <c r="E165" t="s">
+        <v>68</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>6</v>
+      </c>
+      <c r="H165">
+        <v>6</v>
+      </c>
+      <c r="I165">
+        <v>4</v>
+      </c>
+      <c r="M165">
+        <v>2</v>
+      </c>
+      <c r="P165" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>75</v>
+      </c>
+      <c r="R165" t="s">
+        <v>80</v>
+      </c>
+      <c r="S165" t="s">
+        <v>92</v>
+      </c>
+      <c r="T165" t="s">
+        <v>136</v>
+      </c>
+      <c r="U165" t="s">
+        <v>154</v>
+      </c>
+      <c r="V165" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y165" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA165" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB165">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28">
+      <c r="A166" t="s">
+        <v>31</v>
+      </c>
+      <c r="B166" t="s">
+        <v>45</v>
+      </c>
+      <c r="C166" t="s">
+        <v>47</v>
+      </c>
+      <c r="D166" t="s">
+        <v>61</v>
+      </c>
+      <c r="E166" t="s">
+        <v>68</v>
+      </c>
+      <c r="F166">
+        <v>6</v>
+      </c>
+      <c r="G166">
+        <v>3</v>
+      </c>
+      <c r="H166">
+        <v>2</v>
+      </c>
+      <c r="K166">
+        <v>5</v>
+      </c>
+      <c r="P166" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>76</v>
+      </c>
+      <c r="R166" t="s">
+        <v>80</v>
+      </c>
+      <c r="S166" t="s">
+        <v>145</v>
+      </c>
+      <c r="U166" t="s">
+        <v>160</v>
+      </c>
+      <c r="V166" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB166">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28">
+      <c r="A167" t="s">
+        <v>31</v>
+      </c>
+      <c r="B167" t="s">
+        <v>45</v>
+      </c>
+      <c r="C167" t="s">
+        <v>47</v>
+      </c>
+      <c r="D167" t="s">
+        <v>61</v>
+      </c>
+      <c r="E167" t="s">
+        <v>68</v>
+      </c>
+      <c r="F167">
+        <v>7</v>
+      </c>
+      <c r="G167">
+        <v>6</v>
+      </c>
+      <c r="H167">
+        <v>6</v>
+      </c>
+      <c r="K167">
+        <v>7</v>
+      </c>
+      <c r="P167" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>76</v>
+      </c>
+      <c r="R167" t="s">
+        <v>80</v>
+      </c>
+      <c r="S167" t="s">
+        <v>135</v>
+      </c>
+      <c r="U167" t="s">
+        <v>154</v>
+      </c>
+      <c r="V167" t="s">
+        <v>220</v>
+      </c>
+      <c r="W167" t="s">
+        <v>261</v>
+      </c>
+      <c r="X167" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB167">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28">
+      <c r="A168" t="s">
+        <v>31</v>
+      </c>
+      <c r="B168" t="s">
+        <v>45</v>
+      </c>
+      <c r="C168" t="s">
+        <v>47</v>
+      </c>
+      <c r="D168" t="s">
+        <v>61</v>
+      </c>
+      <c r="E168" t="s">
+        <v>68</v>
+      </c>
+      <c r="F168">
+        <v>6</v>
+      </c>
+      <c r="G168">
+        <v>6</v>
+      </c>
+      <c r="H168">
+        <v>6</v>
+      </c>
+      <c r="P168" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>77</v>
+      </c>
+      <c r="R168" t="s">
+        <v>80</v>
+      </c>
+      <c r="S168" t="s">
+        <v>138</v>
+      </c>
+      <c r="U168" t="s">
+        <v>160</v>
+      </c>
+      <c r="V168" t="s">
+        <v>223</v>
+      </c>
+      <c r="W168" t="s">
+        <v>264</v>
+      </c>
+      <c r="X168" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB168">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28">
+      <c r="A169" t="s">
+        <v>31</v>
+      </c>
+      <c r="B169" t="s">
+        <v>45</v>
+      </c>
+      <c r="C169" t="s">
+        <v>47</v>
+      </c>
+      <c r="D169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E169" t="s">
+        <v>68</v>
+      </c>
+      <c r="F169">
+        <v>3</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="P169" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>77</v>
+      </c>
+      <c r="R169" t="s">
+        <v>80</v>
+      </c>
+      <c r="S169" t="s">
+        <v>89</v>
+      </c>
+      <c r="U169" t="s">
+        <v>154</v>
+      </c>
+      <c r="V169" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB169">
         <v>2017</v>
       </c>
     </row>
